--- a/data/treasury_ts_issue_(207816, 207818).xlsx
+++ b/data/treasury_ts_issue_(207816, 207818).xlsx
@@ -526,24 +526,24 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>207816</v>
+        <v>207818</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>20220630.400000</t>
+          <t>20221229.400000</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>44595</v>
+        <v>44557</v>
       </c>
       <c r="D2" t="n">
-        <v>99.869333333333</v>
+        <v>99.61770833333399</v>
       </c>
       <c r="E2" t="n">
-        <v>99.873416666667</v>
+        <v>99.627902777778</v>
       </c>
       <c r="F2" t="n">
-        <v>99.871375</v>
+        <v>99.622805555556</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -558,19 +558,15 @@
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>-1.529743072652e-06</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>8.755632173857299e-06</v>
+        <v>1.0297210262064e-05</v>
       </c>
       <c r="L2" t="n">
-        <v>147</v>
+        <v>367</v>
       </c>
       <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
-        <v>58198</v>
-      </c>
+      <c r="N2" t="inlineStr"/>
       <c r="O2" t="n">
         <v>0</v>
       </c>
@@ -587,16 +583,16 @@
         </is>
       </c>
       <c r="C3" s="2" t="n">
-        <v>44676</v>
+        <v>44595</v>
       </c>
       <c r="D3" t="n">
-        <v>99.88633333333399</v>
+        <v>99.869333333333</v>
       </c>
       <c r="E3" t="n">
-        <v>99.888166666667</v>
+        <v>99.873416666667</v>
       </c>
       <c r="F3" t="n">
-        <v>99.88724999999999</v>
+        <v>99.871375</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -612,17 +608,17 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>8.9692496575906e-05</v>
+        <v>-1.529743072652e-06</v>
       </c>
       <c r="K3" t="n">
-        <v>1.7092971307727e-05</v>
+        <v>8.755632173857299e-06</v>
       </c>
       <c r="L3" t="n">
-        <v>66</v>
+        <v>147</v>
       </c>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="n">
-        <v>123702</v>
+        <v>58198</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -640,16 +636,16 @@
         </is>
       </c>
       <c r="C4" s="2" t="n">
-        <v>44677</v>
+        <v>44596</v>
       </c>
       <c r="D4" t="n">
-        <v>99.88805555555599</v>
+        <v>99.837777777778</v>
       </c>
       <c r="E4" t="n">
-        <v>99.889861111111</v>
+        <v>99.854</v>
       </c>
       <c r="F4" t="n">
-        <v>99.888958333334</v>
+        <v>99.84588888888899</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -665,17 +661,17 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1.7102616533531e-05</v>
+        <v>-0.00025518934841056</v>
       </c>
       <c r="K4" t="n">
-        <v>1.7092825169606e-05</v>
+        <v>1.0563697563767e-05</v>
       </c>
       <c r="L4" t="n">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="n">
-        <v>123702</v>
+        <v>58198</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -693,16 +689,16 @@
         </is>
       </c>
       <c r="C5" s="2" t="n">
-        <v>44678</v>
+        <v>44599</v>
       </c>
       <c r="D5" t="n">
-        <v>99.883555555556</v>
+        <v>99.851041666667</v>
       </c>
       <c r="E5" t="n">
-        <v>99.885333333334</v>
+        <v>99.855013888889</v>
       </c>
       <c r="F5" t="n">
-        <v>99.88444444444499</v>
+        <v>99.853027777778</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -718,17 +714,17 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>-4.5189067582591e-05</v>
+        <v>7.149907691088501e-05</v>
       </c>
       <c r="K5" t="n">
-        <v>1.8065995697872e-05</v>
+        <v>1.0285337925428e-05</v>
       </c>
       <c r="L5" t="n">
-        <v>64</v>
+        <v>143</v>
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="n">
-        <v>123702</v>
+        <v>58198</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -746,16 +742,16 @@
         </is>
       </c>
       <c r="C6" s="2" t="n">
-        <v>44679</v>
+        <v>44600</v>
       </c>
       <c r="D6" t="n">
-        <v>99.88799999999999</v>
+        <v>99.850111111111</v>
       </c>
       <c r="E6" t="n">
-        <v>99.89149999999999</v>
+        <v>99.854055555556</v>
       </c>
       <c r="F6" t="n">
-        <v>99.88974999999999</v>
+        <v>99.85208333333399</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -771,17 +767,17 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>5.3116935124826e-05</v>
+        <v>-9.458345585198399e-06</v>
       </c>
       <c r="K6" t="n">
-        <v>1.7509653971325e-05</v>
+        <v>1.0424378265154e-05</v>
       </c>
       <c r="L6" t="n">
-        <v>63</v>
+        <v>142</v>
       </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="n">
-        <v>123702</v>
+        <v>58198</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -799,16 +795,16 @@
         </is>
       </c>
       <c r="C7" s="2" t="n">
-        <v>44680</v>
+        <v>44601</v>
       </c>
       <c r="D7" t="n">
-        <v>99.88977777777799</v>
+        <v>99.84725</v>
       </c>
       <c r="E7" t="n">
-        <v>99.89149999999999</v>
+        <v>99.851166666667</v>
       </c>
       <c r="F7" t="n">
-        <v>99.890638888889</v>
+        <v>99.849208333334</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -824,17 +820,17 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>8.8986997053723e-06</v>
+        <v>-2.8792589037863e-05</v>
       </c>
       <c r="K7" t="n">
-        <v>1.7648540969052e-05</v>
+        <v>1.0702515724852e-05</v>
       </c>
       <c r="L7" t="n">
-        <v>62</v>
+        <v>141</v>
       </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="n">
-        <v>123700</v>
+        <v>58198</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -844,24 +840,24 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>207818</v>
+        <v>207816</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>20221229.400000</t>
+          <t>20220630.400000</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
-        <v>44588</v>
+        <v>44602</v>
       </c>
       <c r="D8" t="n">
-        <v>99.38866666666699</v>
+        <v>99.786111111111</v>
       </c>
       <c r="E8" t="n">
-        <v>99.398</v>
+        <v>99.78999999999999</v>
       </c>
       <c r="F8" t="n">
-        <v>99.393333333334</v>
+        <v>99.788055555556</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -877,17 +873,17 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>6.5261262353973e-05</v>
+        <v>-0.0006124513033056201</v>
       </c>
       <c r="K8" t="n">
-        <v>1.8110546595083e-05</v>
+        <v>1.5154954610147e-05</v>
       </c>
       <c r="L8" t="n">
-        <v>336</v>
+        <v>140</v>
       </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="n">
-        <v>38798</v>
+        <v>58198</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -897,24 +893,24 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>207818</v>
+        <v>207816</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>20221229.400000</t>
+          <t>20220630.400000</t>
         </is>
       </c>
       <c r="C9" s="2" t="n">
-        <v>44589</v>
+        <v>44603</v>
       </c>
       <c r="D9" t="n">
-        <v>99.343958333334</v>
+        <v>99.801152777778</v>
       </c>
       <c r="E9" t="n">
-        <v>99.35791666666699</v>
+        <v>99.80501388888899</v>
       </c>
       <c r="F9" t="n">
-        <v>99.3509375</v>
+        <v>99.803083333334</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -930,17 +926,17 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.00042654604601245</v>
+        <v>0.00015059695966728</v>
       </c>
       <c r="K9" t="n">
-        <v>1.9438151339111e-05</v>
+        <v>1.4180633268613e-05</v>
       </c>
       <c r="L9" t="n">
-        <v>335</v>
+        <v>139</v>
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="n">
-        <v>38798</v>
+        <v>58198</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -950,24 +946,24 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>207818</v>
+        <v>207816</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>20221229.400000</t>
+          <t>20220630.400000</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
-        <v>44592</v>
+        <v>44606</v>
       </c>
       <c r="D10" t="n">
-        <v>99.32677777777799</v>
+        <v>99.799777777778</v>
       </c>
       <c r="E10" t="n">
-        <v>99.340611111111</v>
+        <v>99.803555555556</v>
       </c>
       <c r="F10" t="n">
-        <v>99.333694444445</v>
+        <v>99.801666666667</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -983,17 +979,17 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.00017355704927858</v>
+        <v>-1.4194618235613e-05</v>
       </c>
       <c r="K10" t="n">
-        <v>2.013660485135e-05</v>
+        <v>1.4597814289097e-05</v>
       </c>
       <c r="L10" t="n">
-        <v>332</v>
+        <v>136</v>
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="n">
-        <v>38798</v>
+        <v>58198</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -1003,24 +999,24 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>207818</v>
+        <v>207816</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>20221229.400000</t>
+          <t>20220630.400000</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
-        <v>44593</v>
+        <v>44607</v>
       </c>
       <c r="D11" t="n">
-        <v>99.328805555556</v>
+        <v>99.82375</v>
       </c>
       <c r="E11" t="n">
-        <v>99.342597222222</v>
+        <v>99.8275</v>
       </c>
       <c r="F11" t="n">
-        <v>99.33570138888899</v>
+        <v>99.825625</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1036,17 +1032,17 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>2.0204065253782e-05</v>
+        <v>0.00024005945124493</v>
       </c>
       <c r="K11" t="n">
-        <v>2.0136401660103e-05</v>
+        <v>1.292794149431e-05</v>
       </c>
       <c r="L11" t="n">
-        <v>331</v>
+        <v>135</v>
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="n">
-        <v>38798</v>
+        <v>58198</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -1056,24 +1052,24 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>207818</v>
+        <v>207816</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>20221229.400000</t>
+          <t>20220630.400000</t>
         </is>
       </c>
       <c r="C12" s="2" t="n">
-        <v>44594</v>
+        <v>44608</v>
       </c>
       <c r="D12" t="n">
-        <v>99.362916666667</v>
+        <v>99.826916666667</v>
       </c>
       <c r="E12" t="n">
-        <v>99.372083333334</v>
+        <v>99.830638888889</v>
       </c>
       <c r="F12" t="n">
-        <v>99.36749999999999</v>
+        <v>99.828777777778</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1089,17 +1085,17 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.00032011261476499</v>
+        <v>3.1582850373045e-05</v>
       </c>
       <c r="K12" t="n">
-        <v>1.9227538060123e-05</v>
+        <v>1.2788729478257e-05</v>
       </c>
       <c r="L12" t="n">
-        <v>330</v>
+        <v>134</v>
       </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="n">
-        <v>38798</v>
+        <v>58198</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -1109,24 +1105,24 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>207818</v>
+        <v>207816</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>20221229.400000</t>
+          <t>20220630.400000</t>
         </is>
       </c>
       <c r="C13" s="2" t="n">
-        <v>44595</v>
+        <v>44609</v>
       </c>
       <c r="D13" t="n">
-        <v>99.346569444445</v>
+        <v>99.826361111111</v>
       </c>
       <c r="E13" t="n">
-        <v>99.351138888889</v>
+        <v>99.830055555556</v>
       </c>
       <c r="F13" t="n">
-        <v>99.348854166667</v>
+        <v>99.828208333334</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1142,17 +1138,17 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.00018764518915493</v>
+        <v>-5.7042113218117e-06</v>
       </c>
       <c r="K13" t="n">
-        <v>1.9856384062482e-05</v>
+        <v>1.292777426825e-05</v>
       </c>
       <c r="L13" t="n">
-        <v>329</v>
+        <v>133</v>
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="n">
-        <v>38798</v>
+        <v>58198</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1162,24 +1158,24 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>207818</v>
+        <v>207816</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>20221229.400000</t>
+          <t>20220630.400000</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
-        <v>44596</v>
+        <v>44610</v>
       </c>
       <c r="D14" t="n">
-        <v>99.262</v>
+        <v>99.82033333333399</v>
       </c>
       <c r="E14" t="n">
-        <v>99.271111111111</v>
+        <v>99.824</v>
       </c>
       <c r="F14" t="n">
-        <v>99.266555555556</v>
+        <v>99.822166666667</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1195,17 +1191,17 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.0008283800734433701</v>
+        <v>-6.052063607595501e-05</v>
       </c>
       <c r="K14" t="n">
-        <v>2.2443517458453e-05</v>
+        <v>1.3484215493946e-05</v>
       </c>
       <c r="L14" t="n">
-        <v>328</v>
+        <v>132</v>
       </c>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="n">
-        <v>38798</v>
+        <v>58198</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -1215,24 +1211,24 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>207818</v>
+        <v>207816</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>20221229.400000</t>
+          <t>20220630.400000</t>
         </is>
       </c>
       <c r="C15" s="2" t="n">
-        <v>44599</v>
+        <v>44614</v>
       </c>
       <c r="D15" t="n">
-        <v>99.264236111111</v>
+        <v>99.816888888889</v>
       </c>
       <c r="E15" t="n">
-        <v>99.27326388888901</v>
+        <v>99.820444444445</v>
       </c>
       <c r="F15" t="n">
-        <v>99.26875</v>
+        <v>99.818666666667</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1248,17 +1244,17 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>2.2106583956473e-05</v>
+        <v>-3.5062352550293e-05</v>
       </c>
       <c r="K15" t="n">
-        <v>2.2582668882348e-05</v>
+        <v>1.4179526659764e-05</v>
       </c>
       <c r="L15" t="n">
-        <v>325</v>
+        <v>128</v>
       </c>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="n">
-        <v>38798</v>
+        <v>58198</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -1268,24 +1264,24 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>207818</v>
+        <v>207816</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>20221229.400000</t>
+          <t>20220630.400000</t>
         </is>
       </c>
       <c r="C16" s="2" t="n">
-        <v>44600</v>
+        <v>44615</v>
       </c>
       <c r="D16" t="n">
-        <v>99.262</v>
+        <v>99.82537499999999</v>
       </c>
       <c r="E16" t="n">
-        <v>99.271</v>
+        <v>99.828902777778</v>
       </c>
       <c r="F16" t="n">
-        <v>99.26649999999999</v>
+        <v>99.827138888889</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1301,17 +1297,17 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>-2.2665743247534e-05</v>
+        <v>8.487613093966001e-05</v>
       </c>
       <c r="K16" t="n">
-        <v>2.2722325268156e-05</v>
+        <v>1.3622888844766e-05</v>
       </c>
       <c r="L16" t="n">
-        <v>324</v>
+        <v>127</v>
       </c>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="n">
-        <v>38798</v>
+        <v>58198</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -1321,24 +1317,24 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>207818</v>
+        <v>207816</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>20221229.400000</t>
+          <t>20220630.400000</t>
         </is>
       </c>
       <c r="C17" s="2" t="n">
-        <v>44601</v>
+        <v>44616</v>
       </c>
       <c r="D17" t="n">
-        <v>99.268763888889</v>
+        <v>99.846</v>
       </c>
       <c r="E17" t="n">
-        <v>99.277736111111</v>
+        <v>99.84949999999999</v>
       </c>
       <c r="F17" t="n">
-        <v>99.27325</v>
+        <v>99.84775</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1354,17 +1350,17 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>6.799877098495101e-05</v>
+        <v>0.00020646801401413</v>
       </c>
       <c r="K17" t="n">
-        <v>2.2582157670926e-05</v>
+        <v>1.2092541117922e-05</v>
       </c>
       <c r="L17" t="n">
-        <v>323</v>
+        <v>126</v>
       </c>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="n">
-        <v>38798</v>
+        <v>58198</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -1374,24 +1370,24 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>207818</v>
+        <v>207816</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>20221229.400000</t>
+          <t>20220630.400000</t>
         </is>
       </c>
       <c r="C18" s="2" t="n">
-        <v>44602</v>
+        <v>44617</v>
       </c>
       <c r="D18" t="n">
-        <v>99.078722222222</v>
+        <v>99.836805555556</v>
       </c>
       <c r="E18" t="n">
-        <v>99.087666666667</v>
+        <v>99.840277777778</v>
       </c>
       <c r="F18" t="n">
-        <v>99.083194444445</v>
+        <v>99.838541666667</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1407,17 +1403,17 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.0019144689587129</v>
+        <v>-9.2223743983652e-05</v>
       </c>
       <c r="K18" t="n">
-        <v>2.8603542933067e-05</v>
+        <v>1.2927105421701e-05</v>
       </c>
       <c r="L18" t="n">
-        <v>322</v>
+        <v>125</v>
       </c>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="n">
-        <v>38798</v>
+        <v>58198</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -1427,24 +1423,24 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>207818</v>
+        <v>207816</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>20221229.400000</t>
+          <t>20220630.400000</t>
         </is>
       </c>
       <c r="C19" s="2" t="n">
-        <v>44603</v>
+        <v>44620</v>
       </c>
       <c r="D19" t="n">
-        <v>99.081583333334</v>
+        <v>99.850888888889</v>
       </c>
       <c r="E19" t="n">
-        <v>99.152916666667</v>
+        <v>99.85427777777799</v>
       </c>
       <c r="F19" t="n">
-        <v>99.11725</v>
+        <v>99.852583333334</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1460,17 +1456,17 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0.00034370667746942</v>
+        <v>0.00014064374771787</v>
       </c>
       <c r="K19" t="n">
-        <v>2.7622097198091e-05</v>
+        <v>1.2092248519667e-05</v>
       </c>
       <c r="L19" t="n">
-        <v>321</v>
+        <v>122</v>
       </c>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="n">
-        <v>38798</v>
+        <v>58198</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -1480,24 +1476,24 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>207818</v>
+        <v>207816</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>20221229.400000</t>
+          <t>20220630.400000</t>
         </is>
       </c>
       <c r="C20" s="2" t="n">
-        <v>44606</v>
+        <v>44621</v>
       </c>
       <c r="D20" t="n">
-        <v>99.134333333334</v>
+        <v>99.87731944444499</v>
       </c>
       <c r="E20" t="n">
-        <v>99.143166666667</v>
+        <v>99.880680555556</v>
       </c>
       <c r="F20" t="n">
-        <v>99.13875</v>
+        <v>99.879</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1513,17 +1509,17 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0.00021691481553409</v>
+        <v>0.00026455666728687</v>
       </c>
       <c r="K20" t="n">
-        <v>2.7200634929781e-05</v>
+        <v>1.0006054884767e-05</v>
       </c>
       <c r="L20" t="n">
-        <v>318</v>
+        <v>121</v>
       </c>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="n">
-        <v>38798</v>
+        <v>58198</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -1533,24 +1529,24 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>207818</v>
+        <v>207816</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>20221229.400000</t>
+          <t>20220630.400000</t>
         </is>
       </c>
       <c r="C21" s="2" t="n">
-        <v>44607</v>
+        <v>44622</v>
       </c>
       <c r="D21" t="n">
-        <v>99.145861111111</v>
+        <v>99.851666666667</v>
       </c>
       <c r="E21" t="n">
-        <v>99.154666666667</v>
+        <v>99.855</v>
       </c>
       <c r="F21" t="n">
-        <v>99.150263888889</v>
+        <v>99.85333333333399</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1566,17 +1562,17 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.00011613913720824</v>
+        <v>-0.00025697760957416</v>
       </c>
       <c r="K21" t="n">
-        <v>2.6920093104383e-05</v>
+        <v>1.2231193958622e-05</v>
       </c>
       <c r="L21" t="n">
-        <v>317</v>
+        <v>120</v>
       </c>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="n">
-        <v>38798</v>
+        <v>58198</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -1586,24 +1582,24 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>207818</v>
+        <v>207816</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>20221229.400000</t>
+          <t>20220630.400000</t>
         </is>
       </c>
       <c r="C22" s="2" t="n">
-        <v>44608</v>
+        <v>44623</v>
       </c>
       <c r="D22" t="n">
-        <v>99.148555555556</v>
+        <v>99.838027777778</v>
       </c>
       <c r="E22" t="n">
-        <v>99.174888888889</v>
+        <v>99.861166666667</v>
       </c>
       <c r="F22" t="n">
-        <v>99.161722222222</v>
+        <v>99.849597222222</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1619,17 +1615,17 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0.00011556533370567</v>
+        <v>-3.7415987893322e-05</v>
       </c>
       <c r="K22" t="n">
-        <v>2.6639591321337e-05</v>
+        <v>1.2648403049778e-05</v>
       </c>
       <c r="L22" t="n">
-        <v>316</v>
+        <v>119</v>
       </c>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="n">
-        <v>38798</v>
+        <v>58198</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -1639,24 +1635,24 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>207818</v>
+        <v>207816</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>20221229.400000</t>
+          <t>20220630.400000</t>
         </is>
       </c>
       <c r="C23" s="2" t="n">
-        <v>44609</v>
+        <v>44624</v>
       </c>
       <c r="D23" t="n">
-        <v>99.09</v>
+        <v>99.850861111111</v>
       </c>
       <c r="E23" t="n">
-        <v>99.21249999999999</v>
+        <v>99.854138888889</v>
       </c>
       <c r="F23" t="n">
-        <v>99.15125</v>
+        <v>99.85249999999999</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1672,17 +1668,17 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.00010560750648074</v>
+        <v>2.9071502124316e-05</v>
       </c>
       <c r="K23" t="n">
-        <v>2.7059441082186e-05</v>
+        <v>1.2509227825145e-05</v>
       </c>
       <c r="L23" t="n">
-        <v>315</v>
+        <v>118</v>
       </c>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="n">
-        <v>38798</v>
+        <v>58198</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -1692,24 +1688,24 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>207818</v>
+        <v>207816</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>20221229.400000</t>
+          <t>20220630.400000</t>
         </is>
       </c>
       <c r="C24" s="2" t="n">
-        <v>44610</v>
+        <v>44627</v>
       </c>
       <c r="D24" t="n">
-        <v>99.215</v>
+        <v>99.854652777778</v>
       </c>
       <c r="E24" t="n">
-        <v>99.22372222222199</v>
+        <v>99.85784722222199</v>
       </c>
       <c r="F24" t="n">
-        <v>99.219361111111</v>
+        <v>99.85625</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1725,17 +1721,17 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0006869415273243001</v>
+        <v>3.7555394206478e-05</v>
       </c>
       <c r="K24" t="n">
-        <v>2.4958656846808e-05</v>
+        <v>1.250899299432e-05</v>
       </c>
       <c r="L24" t="n">
-        <v>314</v>
+        <v>115</v>
       </c>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="n">
-        <v>38798</v>
+        <v>58198</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -1745,24 +1741,24 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>207818</v>
+        <v>207816</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>20221229.400000</t>
+          <t>20220630.400000</t>
         </is>
       </c>
       <c r="C25" s="2" t="n">
-        <v>44614</v>
+        <v>44628</v>
       </c>
       <c r="D25" t="n">
-        <v>99.190555555556</v>
+        <v>99.86225</v>
       </c>
       <c r="E25" t="n">
-        <v>99.199166666667</v>
+        <v>99.865416666667</v>
       </c>
       <c r="F25" t="n">
-        <v>99.194861111111</v>
+        <v>99.863833333334</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1778,17 +1774,17 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.00024692761297422</v>
+        <v>7.5942500678111e-05</v>
       </c>
       <c r="K25" t="n">
-        <v>2.6077343079079e-05</v>
+        <v>1.1952584010127e-05</v>
       </c>
       <c r="L25" t="n">
-        <v>310</v>
+        <v>114</v>
       </c>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="n">
-        <v>38798</v>
+        <v>58198</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -1798,24 +1794,24 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>207818</v>
+        <v>207816</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>20221229.400000</t>
+          <t>20220630.400000</t>
         </is>
       </c>
       <c r="C26" s="2" t="n">
-        <v>44615</v>
+        <v>44629</v>
       </c>
       <c r="D26" t="n">
-        <v>99.184583333334</v>
+        <v>99.861888888889</v>
       </c>
       <c r="E26" t="n">
-        <v>99.193166666667</v>
+        <v>99.865027777778</v>
       </c>
       <c r="F26" t="n">
-        <v>99.188875</v>
+        <v>99.86345833333399</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1831,17 +1827,17 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>-6.034698818134701e-05</v>
+        <v>-3.7551132123489e-06</v>
       </c>
       <c r="K26" t="n">
-        <v>2.6357039364558e-05</v>
+        <v>1.209159024263e-05</v>
       </c>
       <c r="L26" t="n">
-        <v>309</v>
+        <v>113</v>
       </c>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="n">
-        <v>38798</v>
+        <v>58198</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -1851,24 +1847,24 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>207818</v>
+        <v>207816</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>20221229.400000</t>
+          <t>20220630.400000</t>
         </is>
       </c>
       <c r="C27" s="2" t="n">
-        <v>44616</v>
+        <v>44630</v>
       </c>
       <c r="D27" t="n">
-        <v>99.251388888889</v>
+        <v>99.86466666666699</v>
       </c>
       <c r="E27" t="n">
-        <v>99.259944444445</v>
+        <v>99.867777777778</v>
       </c>
       <c r="F27" t="n">
-        <v>99.255666666667</v>
+        <v>99.86622222222199</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1884,17 +1880,17 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.00067337860890805</v>
+        <v>2.7676679087697e-05</v>
       </c>
       <c r="K27" t="n">
-        <v>2.4257055754509e-05</v>
+        <v>1.1952441083231e-05</v>
       </c>
       <c r="L27" t="n">
-        <v>308</v>
+        <v>112</v>
       </c>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="n">
-        <v>38798</v>
+        <v>58198</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -1904,24 +1900,24 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>207818</v>
+        <v>207816</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>20221229.400000</t>
+          <t>20220630.400000</t>
         </is>
       </c>
       <c r="C28" s="2" t="n">
-        <v>44617</v>
+        <v>44631</v>
       </c>
       <c r="D28" t="n">
-        <v>99.189861111111</v>
+        <v>99.85662499999999</v>
       </c>
       <c r="E28" t="n">
-        <v>99.198388888889</v>
+        <v>99.859708333334</v>
       </c>
       <c r="F28" t="n">
-        <v>99.194125</v>
+        <v>99.858166666667</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1937,17 +1933,17 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>-0.0006200317698064601</v>
+        <v>-8.066346534705901e-05</v>
       </c>
       <c r="K28" t="n">
-        <v>2.6356342805813e-05</v>
+        <v>1.27868479292e-05</v>
       </c>
       <c r="L28" t="n">
-        <v>307</v>
+        <v>111</v>
       </c>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="n">
-        <v>38798</v>
+        <v>58198</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -1957,24 +1953,24 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>207818</v>
+        <v>207816</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>20221229.400000</t>
+          <t>20220630.400000</t>
         </is>
       </c>
       <c r="C29" s="2" t="n">
-        <v>44620</v>
+        <v>44634</v>
       </c>
       <c r="D29" t="n">
-        <v>99.248444444445</v>
+        <v>99.877</v>
       </c>
       <c r="E29" t="n">
-        <v>99.25688888888899</v>
+        <v>99.88</v>
       </c>
       <c r="F29" t="n">
-        <v>99.252666666667</v>
+        <v>99.8785</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1990,17 +1986,17 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0.0005901727210827001</v>
+        <v>0.00020362213739832</v>
       </c>
       <c r="K29" t="n">
-        <v>2.4675653301753e-05</v>
+        <v>1.1256839915893e-05</v>
       </c>
       <c r="L29" t="n">
-        <v>304</v>
+        <v>108</v>
       </c>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="n">
-        <v>38798</v>
+        <v>58198</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -2010,24 +2006,24 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>207818</v>
+        <v>207816</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>20221229.400000</t>
+          <t>20220630.400000</t>
         </is>
       </c>
       <c r="C30" s="2" t="n">
-        <v>44621</v>
+        <v>44635</v>
       </c>
       <c r="D30" t="n">
-        <v>99.410833333334</v>
+        <v>99.852875</v>
       </c>
       <c r="E30" t="n">
-        <v>99.41924999999999</v>
+        <v>99.855847222222</v>
       </c>
       <c r="F30" t="n">
-        <v>99.41504166666699</v>
+        <v>99.854361111111</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -2043,17 +2039,17 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.0016359761954339</v>
+        <v>-0.00024168253316683</v>
       </c>
       <c r="K30" t="n">
-        <v>1.9362241450906e-05</v>
+        <v>1.3621032280497e-05</v>
       </c>
       <c r="L30" t="n">
-        <v>303</v>
+        <v>107</v>
       </c>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="n">
-        <v>38798</v>
+        <v>58198</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -2063,24 +2059,24 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>207818</v>
+        <v>207816</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>20221229.400000</t>
+          <t>20220630.400000</t>
         </is>
       </c>
       <c r="C31" s="2" t="n">
-        <v>44622</v>
+        <v>44636</v>
       </c>
       <c r="D31" t="n">
-        <v>99.3205</v>
+        <v>99.824805555556</v>
       </c>
       <c r="E31" t="n">
-        <v>99.328888888889</v>
+        <v>99.82774999999999</v>
       </c>
       <c r="F31" t="n">
-        <v>99.324694444445</v>
+        <v>99.826277777778</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -2096,17 +2092,17 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.0009087882548513101</v>
+        <v>-0.00028124293241513</v>
       </c>
       <c r="K31" t="n">
-        <v>2.2436955671791e-05</v>
+        <v>1.6403140968289e-05</v>
       </c>
       <c r="L31" t="n">
-        <v>302</v>
+        <v>106</v>
       </c>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="n">
-        <v>38798</v>
+        <v>58198</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -2116,24 +2112,24 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>207818</v>
+        <v>207816</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>20221229.400000</t>
+          <t>20220630.400000</t>
         </is>
       </c>
       <c r="C32" s="2" t="n">
-        <v>44623</v>
+        <v>44637</v>
       </c>
       <c r="D32" t="n">
-        <v>99.214055555556</v>
+        <v>99.865833333334</v>
       </c>
       <c r="E32" t="n">
-        <v>99.222416666667</v>
+        <v>99.86874999999999</v>
       </c>
       <c r="F32" t="n">
-        <v>99.218236111111</v>
+        <v>99.867291666667</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -2149,17 +2145,17 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>-0.0010718214028122</v>
+        <v>0.00041085263120985</v>
       </c>
       <c r="K32" t="n">
-        <v>2.6074275172823e-05</v>
+        <v>1.264728274534e-05</v>
       </c>
       <c r="L32" t="n">
-        <v>301</v>
+        <v>105</v>
       </c>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="n">
-        <v>38798</v>
+        <v>58198</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -2169,24 +2165,24 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>207818</v>
+        <v>207816</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>20221229.400000</t>
+          <t>20220630.400000</t>
         </is>
       </c>
       <c r="C33" s="2" t="n">
-        <v>44624</v>
+        <v>44638</v>
       </c>
       <c r="D33" t="n">
-        <v>99.26666666666699</v>
+        <v>99.87</v>
       </c>
       <c r="E33" t="n">
-        <v>99.27499999999999</v>
+        <v>99.87288888888899</v>
       </c>
       <c r="F33" t="n">
-        <v>99.270833333334</v>
+        <v>99.871444444445</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -2202,17 +2198,17 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.00053011648144325</v>
+        <v>4.1582961833483e-05</v>
       </c>
       <c r="K33" t="n">
-        <v>2.4394602692266e-05</v>
+        <v>1.2369063374756e-05</v>
       </c>
       <c r="L33" t="n">
-        <v>300</v>
+        <v>104</v>
       </c>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="n">
-        <v>38798</v>
+        <v>58198</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -2222,24 +2218,24 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>207818</v>
+        <v>207816</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>20221229.400000</t>
+          <t>20220630.400000</t>
         </is>
       </c>
       <c r="C34" s="2" t="n">
-        <v>44627</v>
+        <v>44641</v>
       </c>
       <c r="D34" t="n">
-        <v>99.241</v>
+        <v>99.854111111111</v>
       </c>
       <c r="E34" t="n">
-        <v>99.24925</v>
+        <v>99.858319444445</v>
       </c>
       <c r="F34" t="n">
-        <v>99.245125</v>
+        <v>99.85621527777799</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -2255,17 +2251,17 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>-0.00025897166841561</v>
+        <v>-0.00015248769807405</v>
       </c>
       <c r="K34" t="n">
-        <v>2.5513084225752e-05</v>
+        <v>1.4246355608711e-05</v>
       </c>
       <c r="L34" t="n">
-        <v>297</v>
+        <v>101</v>
       </c>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="n">
-        <v>38798</v>
+        <v>58198</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -2275,24 +2271,24 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>207818</v>
+        <v>207816</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>20221229.400000</t>
+          <t>20220630.400000</t>
         </is>
       </c>
       <c r="C35" s="2" t="n">
-        <v>44628</v>
+        <v>44642</v>
       </c>
       <c r="D35" t="n">
-        <v>99.227111111111</v>
+        <v>99.852777777778</v>
       </c>
       <c r="E35" t="n">
-        <v>99.235333333334</v>
+        <v>99.85555555555599</v>
       </c>
       <c r="F35" t="n">
-        <v>99.231222222222</v>
+        <v>99.854166666667</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -2308,17 +2304,17 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>-0.00014008524628072</v>
+        <v>-2.0515609423295e-05</v>
       </c>
       <c r="K35" t="n">
-        <v>2.6072571196566e-05</v>
+        <v>1.4593977363512e-05</v>
       </c>
       <c r="L35" t="n">
-        <v>296</v>
+        <v>100</v>
       </c>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="n">
-        <v>38798</v>
+        <v>58198</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -2328,24 +2324,24 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>207818</v>
+        <v>207816</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>20221229.400000</t>
+          <t>20220630.400000</t>
         </is>
       </c>
       <c r="C36" s="2" t="n">
-        <v>44629</v>
+        <v>44643</v>
       </c>
       <c r="D36" t="n">
-        <v>99.192847222222</v>
+        <v>99.8625</v>
       </c>
       <c r="E36" t="n">
-        <v>99.201041666667</v>
+        <v>99.86525</v>
       </c>
       <c r="F36" t="n">
-        <v>99.19694444444499</v>
+        <v>99.86387499999999</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -2361,17 +2357,17 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>-0.00034543339293952</v>
+        <v>9.7225119966755e-05</v>
       </c>
       <c r="K36" t="n">
-        <v>2.7332115738918e-05</v>
+        <v>1.3759367095353e-05</v>
       </c>
       <c r="L36" t="n">
-        <v>295</v>
+        <v>99</v>
       </c>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="n">
-        <v>38798</v>
+        <v>58198</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -2381,24 +2377,24 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>207818</v>
+        <v>207816</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>20221229.400000</t>
+          <t>20220630.400000</t>
         </is>
       </c>
       <c r="C37" s="2" t="n">
-        <v>44630</v>
+        <v>44644</v>
       </c>
       <c r="D37" t="n">
-        <v>99.195583333334</v>
+        <v>99.861166666667</v>
       </c>
       <c r="E37" t="n">
-        <v>99.20375</v>
+        <v>99.86388888888899</v>
       </c>
       <c r="F37" t="n">
-        <v>99.199666666667</v>
+        <v>99.862527777778</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -2414,17 +2410,17 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>2.7442601558584e-05</v>
+        <v>-1.3490586282721e-05</v>
       </c>
       <c r="K37" t="n">
-        <v>2.7331741217563e-05</v>
+        <v>1.403742877267e-05</v>
       </c>
       <c r="L37" t="n">
-        <v>294</v>
+        <v>98</v>
       </c>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="n">
-        <v>38798</v>
+        <v>58198</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -2434,24 +2430,24 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>207818</v>
+        <v>207816</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>20221229.400000</t>
+          <t>20220630.400000</t>
         </is>
       </c>
       <c r="C38" s="2" t="n">
-        <v>44631</v>
+        <v>44645</v>
       </c>
       <c r="D38" t="n">
-        <v>99.153555555556</v>
+        <v>99.846416666667</v>
       </c>
       <c r="E38" t="n">
-        <v>99.161694444445</v>
+        <v>99.859888888889</v>
       </c>
       <c r="F38" t="n">
-        <v>99.157625</v>
+        <v>99.85315277777799</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2467,17 +2463,17 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>-0.00042380854774392</v>
+        <v>-9.3879057626836e-05</v>
       </c>
       <c r="K38" t="n">
-        <v>2.887177576086e-05</v>
+        <v>1.5150015301679e-05</v>
       </c>
       <c r="L38" t="n">
-        <v>293</v>
+        <v>97</v>
       </c>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="n">
-        <v>38798</v>
+        <v>58198</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -2487,24 +2483,24 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>207818</v>
+        <v>207816</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>20221229.400000</t>
+          <t>20220630.400000</t>
         </is>
       </c>
       <c r="C39" s="2" t="n">
-        <v>44634</v>
+        <v>44648</v>
       </c>
       <c r="D39" t="n">
-        <v>99.13</v>
+        <v>99.848555555556</v>
       </c>
       <c r="E39" t="n">
-        <v>99.13805555555599</v>
+        <v>99.85377777777799</v>
       </c>
       <c r="F39" t="n">
-        <v>99.134027777778</v>
+        <v>99.851166666667</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2520,17 +2516,17 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>-0.00023797687996476</v>
+        <v>-1.9890319492741e-05</v>
       </c>
       <c r="K39" t="n">
-        <v>2.9991156892716e-05</v>
+        <v>1.5845127676283e-05</v>
       </c>
       <c r="L39" t="n">
-        <v>290</v>
+        <v>94</v>
       </c>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="n">
-        <v>38798</v>
+        <v>58198</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -2540,24 +2536,24 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>207818</v>
+        <v>207816</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>20221229.400000</t>
+          <t>20220630.400000</t>
         </is>
       </c>
       <c r="C40" s="2" t="n">
-        <v>44635</v>
+        <v>44649</v>
       </c>
       <c r="D40" t="n">
-        <v>99.124972222222</v>
+        <v>99.854041666667</v>
       </c>
       <c r="E40" t="n">
-        <v>99.133</v>
+        <v>99.85662499999999</v>
       </c>
       <c r="F40" t="n">
-        <v>99.128986111111</v>
+        <v>99.855333333334</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2573,17 +2569,17 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>-5.0857074807476e-05</v>
+        <v>4.172877299040701e-05</v>
       </c>
       <c r="K40" t="n">
-        <v>3.0270913034464e-05</v>
+        <v>1.5566818270982e-05</v>
       </c>
       <c r="L40" t="n">
-        <v>289</v>
+        <v>93</v>
       </c>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="n">
-        <v>38798</v>
+        <v>58198</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -2593,24 +2589,24 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>207818</v>
+        <v>207816</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>20221229.400000</t>
+          <t>20220630.400000</t>
         </is>
       </c>
       <c r="C41" s="2" t="n">
-        <v>44636</v>
+        <v>44650</v>
       </c>
       <c r="D41" t="n">
-        <v>99.152</v>
+        <v>99.86199999999999</v>
       </c>
       <c r="E41" t="n">
-        <v>99.16</v>
+        <v>99.867111111111</v>
       </c>
       <c r="F41" t="n">
-        <v>99.15599999999999</v>
+        <v>99.864555555556</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2626,17 +2622,17 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0.00027251251070615</v>
+        <v>9.2355830323473e-05</v>
       </c>
       <c r="K41" t="n">
-        <v>2.9429925281402e-05</v>
+        <v>1.4732201450163e-05</v>
       </c>
       <c r="L41" t="n">
-        <v>288</v>
+        <v>92</v>
       </c>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="n">
-        <v>38798</v>
+        <v>58198</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -2646,24 +2642,24 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>207818</v>
+        <v>207816</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>20221229.400000</t>
+          <t>20220630.400000</t>
         </is>
       </c>
       <c r="C42" s="2" t="n">
-        <v>44637</v>
+        <v>44651</v>
       </c>
       <c r="D42" t="n">
-        <v>99.146972222222</v>
+        <v>99.873611111111</v>
       </c>
       <c r="E42" t="n">
-        <v>99.15494444444499</v>
+        <v>99.874875</v>
       </c>
       <c r="F42" t="n">
-        <v>99.150958333334</v>
+        <v>99.87424305555599</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2679,17 +2675,17 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>-5.084580526314e-05</v>
+        <v>9.700638976569001e-05</v>
       </c>
       <c r="K42" t="n">
-        <v>2.9709636163758e-05</v>
+        <v>1.3828141191921e-05</v>
       </c>
       <c r="L42" t="n">
-        <v>287</v>
+        <v>91</v>
       </c>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="n">
-        <v>38798</v>
+        <v>123702</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -2699,24 +2695,24 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>207818</v>
+        <v>207816</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>20221229.400000</t>
+          <t>20220630.400000</t>
         </is>
       </c>
       <c r="C43" s="2" t="n">
-        <v>44638</v>
+        <v>44652</v>
       </c>
       <c r="D43" t="n">
-        <v>99.134055555556</v>
+        <v>99.87125</v>
       </c>
       <c r="E43" t="n">
-        <v>99.142</v>
+        <v>99.8725</v>
       </c>
       <c r="F43" t="n">
-        <v>99.13802777777799</v>
+        <v>99.871875</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2732,17 +2728,17 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>-0.00013041281469097</v>
+        <v>-2.3710372996168e-05</v>
       </c>
       <c r="K43" t="n">
-        <v>3.0269534609021e-05</v>
+        <v>1.4245238917293e-05</v>
       </c>
       <c r="L43" t="n">
-        <v>286</v>
+        <v>90</v>
       </c>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="n">
-        <v>38798</v>
+        <v>123702</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -2752,24 +2748,24 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>207818</v>
+        <v>207816</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>20221229.400000</t>
+          <t>20220630.400000</t>
         </is>
       </c>
       <c r="C44" s="2" t="n">
-        <v>44641</v>
+        <v>44655</v>
       </c>
       <c r="D44" t="n">
-        <v>99.11169444444499</v>
+        <v>99.86708333333399</v>
       </c>
       <c r="E44" t="n">
-        <v>99.119555555556</v>
+        <v>99.8695</v>
       </c>
       <c r="F44" t="n">
-        <v>99.11562499999999</v>
+        <v>99.86829166666699</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2785,17 +2781,17 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>-0.00022597562489343</v>
+        <v>-3.58793036912e-05</v>
       </c>
       <c r="K44" t="n">
-        <v>3.1389003743506e-05</v>
+        <v>1.5148867240518e-05</v>
       </c>
       <c r="L44" t="n">
-        <v>283</v>
+        <v>87</v>
       </c>
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="n">
-        <v>38798</v>
+        <v>123702</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -2805,24 +2801,24 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>207818</v>
+        <v>207816</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>20221229.400000</t>
+          <t>20220630.400000</t>
         </is>
       </c>
       <c r="C45" s="2" t="n">
-        <v>44642</v>
+        <v>44656</v>
       </c>
       <c r="D45" t="n">
-        <v>99.0835</v>
+        <v>99.865027777778</v>
       </c>
       <c r="E45" t="n">
-        <v>99.09133333333399</v>
+        <v>99.869805555556</v>
       </c>
       <c r="F45" t="n">
-        <v>99.087416666667</v>
+        <v>99.867416666667</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2838,17 +2834,17 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>-0.00028460026694403</v>
+        <v>-8.761539677774699e-06</v>
       </c>
       <c r="K45" t="n">
-        <v>3.2509676711694e-05</v>
+        <v>1.542689567425e-05</v>
       </c>
       <c r="L45" t="n">
-        <v>282</v>
+        <v>86</v>
       </c>
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="n">
-        <v>38798</v>
+        <v>123702</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -2858,24 +2854,24 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>207818</v>
+        <v>207816</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>20221229.400000</t>
+          <t>20220630.400000</t>
         </is>
       </c>
       <c r="C46" s="2" t="n">
-        <v>44643</v>
+        <v>44657</v>
       </c>
       <c r="D46" t="n">
-        <v>99.094555555556</v>
+        <v>99.864236111111</v>
       </c>
       <c r="E46" t="n">
-        <v>99.141388888889</v>
+        <v>99.866597222222</v>
       </c>
       <c r="F46" t="n">
-        <v>99.11797222222199</v>
+        <v>99.865416666667</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2891,17 +2887,17 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0.00030836968591415</v>
+        <v>-2.0026551870041e-05</v>
       </c>
       <c r="K46" t="n">
-        <v>3.1528137661719e-05</v>
+        <v>1.5843997416349e-05</v>
       </c>
       <c r="L46" t="n">
-        <v>281</v>
+        <v>85</v>
       </c>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="n">
-        <v>38798</v>
+        <v>123702</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -2911,24 +2907,24 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>207818</v>
+        <v>207816</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>20221229.400000</t>
+          <t>20220630.400000</t>
         </is>
       </c>
       <c r="C47" s="2" t="n">
-        <v>44644</v>
+        <v>44658</v>
       </c>
       <c r="D47" t="n">
-        <v>99.18333333333401</v>
+        <v>99.87049999999999</v>
       </c>
       <c r="E47" t="n">
-        <v>99.19499999999999</v>
+        <v>99.87283333333299</v>
       </c>
       <c r="F47" t="n">
-        <v>99.18916666666699</v>
+        <v>99.871666666667</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2944,17 +2940,17 @@
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>0.0007182798724415701</v>
+        <v>6.258422794006801e-05</v>
       </c>
       <c r="K47" t="n">
-        <v>2.9076373750104e-05</v>
+        <v>1.5287589413816e-05</v>
       </c>
       <c r="L47" t="n">
-        <v>280</v>
+        <v>84</v>
       </c>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="n">
-        <v>38798</v>
+        <v>123702</v>
       </c>
       <c r="O47" t="n">
         <v>0</v>
@@ -2964,24 +2960,24 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>207818</v>
+        <v>207816</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>20221229.400000</t>
+          <t>20220630.400000</t>
         </is>
       </c>
       <c r="C48" s="2" t="n">
-        <v>44645</v>
+        <v>44659</v>
       </c>
       <c r="D48" t="n">
-        <v>99.06224999999999</v>
+        <v>99.866277777778</v>
       </c>
       <c r="E48" t="n">
-        <v>99.06999999999999</v>
+        <v>99.868583333334</v>
       </c>
       <c r="F48" t="n">
-        <v>99.066125</v>
+        <v>99.867430555556</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2997,17 +2993,17 @@
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>-0.001240474850244</v>
+        <v>-4.2415544393082e-05</v>
       </c>
       <c r="K48" t="n">
-        <v>3.3629496509191e-05</v>
+        <v>1.5982818731546e-05</v>
       </c>
       <c r="L48" t="n">
-        <v>279</v>
+        <v>83</v>
       </c>
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="n">
-        <v>38798</v>
+        <v>123702</v>
       </c>
       <c r="O48" t="n">
         <v>0</v>
@@ -3017,24 +3013,24 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>207818</v>
+        <v>207816</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>20221229.400000</t>
+          <t>20220630.400000</t>
         </is>
       </c>
       <c r="C49" s="2" t="n">
-        <v>44648</v>
+        <v>44662</v>
       </c>
       <c r="D49" t="n">
-        <v>98.988</v>
+        <v>99.867777777778</v>
       </c>
       <c r="E49" t="n">
-        <v>99.041666666667</v>
+        <v>99.87</v>
       </c>
       <c r="F49" t="n">
-        <v>99.014833333334</v>
+        <v>99.868888888889</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -3050,17 +3046,17 @@
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>-0.00051775182148958</v>
+        <v>1.4602692040975e-05</v>
       </c>
       <c r="K49" t="n">
-        <v>3.5871432707646e-05</v>
+        <v>1.6399642116194e-05</v>
       </c>
       <c r="L49" t="n">
-        <v>276</v>
+        <v>80</v>
       </c>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="n">
-        <v>38798</v>
+        <v>123702</v>
       </c>
       <c r="O49" t="n">
         <v>0</v>
@@ -3070,24 +3066,24 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>207818</v>
+        <v>207816</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>20221229.400000</t>
+          <t>20220630.400000</t>
         </is>
       </c>
       <c r="C50" s="2" t="n">
-        <v>44649</v>
+        <v>44663</v>
       </c>
       <c r="D50" t="n">
-        <v>99.01840277777799</v>
+        <v>99.87601388888899</v>
       </c>
       <c r="E50" t="n">
-        <v>99.083333333334</v>
+        <v>99.878208333334</v>
       </c>
       <c r="F50" t="n">
-        <v>99.05086805555599</v>
+        <v>99.87711111111099</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -3103,17 +3099,17 @@
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>0.00036393256453708</v>
+        <v>8.2330166217914e-05</v>
       </c>
       <c r="K50" t="n">
-        <v>3.467872389151301e-05</v>
+        <v>1.5565121417973e-05</v>
       </c>
       <c r="L50" t="n">
-        <v>275</v>
+        <v>79</v>
       </c>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="n">
-        <v>38798</v>
+        <v>123702</v>
       </c>
       <c r="O50" t="n">
         <v>0</v>
@@ -3123,24 +3119,24 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>207818</v>
+        <v>207816</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>20221229.400000</t>
+          <t>20220630.400000</t>
         </is>
       </c>
       <c r="C51" s="2" t="n">
-        <v>44650</v>
+        <v>44664</v>
       </c>
       <c r="D51" t="n">
-        <v>99.079055555556</v>
+        <v>99.877583333334</v>
       </c>
       <c r="E51" t="n">
-        <v>99.086666666667</v>
+        <v>99.87975</v>
       </c>
       <c r="F51" t="n">
-        <v>99.082861111111</v>
+        <v>99.878666666667</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -3156,17 +3152,17 @@
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>0.00032299621581926</v>
+        <v>1.5574695125445e-05</v>
       </c>
       <c r="K51" t="n">
-        <v>3.3626660607281e-05</v>
+        <v>1.5565000233058e-05</v>
       </c>
       <c r="L51" t="n">
-        <v>274</v>
+        <v>78</v>
       </c>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="n">
-        <v>38798</v>
+        <v>123702</v>
       </c>
       <c r="O51" t="n">
         <v>0</v>
@@ -3176,24 +3172,24 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>207818</v>
+        <v>207816</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>20221229.400000</t>
+          <t>20220630.400000</t>
         </is>
       </c>
       <c r="C52" s="2" t="n">
-        <v>44651</v>
+        <v>44665</v>
       </c>
       <c r="D52" t="n">
-        <v>99.082416666667</v>
+        <v>99.863111111111</v>
       </c>
       <c r="E52" t="n">
-        <v>99.09</v>
+        <v>99.871666666667</v>
       </c>
       <c r="F52" t="n">
-        <v>99.086208333334</v>
+        <v>99.867388888889</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -3209,17 +3205,17 @@
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>3.378205054529e-05</v>
+        <v>-0.00011291478104552</v>
       </c>
       <c r="K52" t="n">
-        <v>3.3626093503481e-05</v>
+        <v>1.7233651617896e-05</v>
       </c>
       <c r="L52" t="n">
-        <v>273</v>
+        <v>77</v>
       </c>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="n">
-        <v>38798</v>
+        <v>123702</v>
       </c>
       <c r="O52" t="n">
         <v>0</v>
@@ -3229,24 +3225,24 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>207818</v>
+        <v>207816</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>20221229.400000</t>
+          <t>20220630.400000</t>
         </is>
       </c>
       <c r="C53" s="2" t="n">
-        <v>44652</v>
+        <v>44669</v>
       </c>
       <c r="D53" t="n">
-        <v>99.051777777778</v>
+        <v>99.869208333334</v>
       </c>
       <c r="E53" t="n">
-        <v>99.059333333334</v>
+        <v>99.871236111111</v>
       </c>
       <c r="F53" t="n">
-        <v>99.055555555556</v>
+        <v>99.870222222222</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -3262,17 +3258,17 @@
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>-0.00030935463464983</v>
+        <v>2.8370956373888e-05</v>
       </c>
       <c r="K53" t="n">
-        <v>3.4887228018808e-05</v>
+        <v>1.7789323570576e-05</v>
       </c>
       <c r="L53" t="n">
-        <v>272</v>
+        <v>73</v>
       </c>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="n">
-        <v>38798</v>
+        <v>123702</v>
       </c>
       <c r="O53" t="n">
         <v>0</v>
@@ -3282,24 +3278,24 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>207818</v>
+        <v>207816</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>20221229.400000</t>
+          <t>20220630.400000</t>
         </is>
       </c>
       <c r="C54" s="2" t="n">
-        <v>44655</v>
+        <v>44670</v>
       </c>
       <c r="D54" t="n">
-        <v>99.01366666666699</v>
+        <v>99.873</v>
       </c>
       <c r="E54" t="n">
-        <v>99.021138888889</v>
+        <v>99.875</v>
       </c>
       <c r="F54" t="n">
-        <v>99.017402777778</v>
+        <v>99.874</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -3315,17 +3311,17 @@
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>-0.00038516545148615</v>
+        <v>3.7826868647226e-05</v>
       </c>
       <c r="K54" t="n">
-        <v>3.6708422557125e-05</v>
+        <v>1.7511034269762e-05</v>
       </c>
       <c r="L54" t="n">
-        <v>269</v>
+        <v>72</v>
       </c>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="n">
-        <v>38798</v>
+        <v>123702</v>
       </c>
       <c r="O54" t="n">
         <v>0</v>
@@ -3335,24 +3331,24 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>207818</v>
+        <v>207816</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>20221229.400000</t>
+          <t>20220630.400000</t>
         </is>
       </c>
       <c r="C55" s="2" t="n">
-        <v>44656</v>
+        <v>44671</v>
       </c>
       <c r="D55" t="n">
-        <v>98.991277777778</v>
+        <v>99.87575</v>
       </c>
       <c r="E55" t="n">
-        <v>98.998722222222</v>
+        <v>99.881666666667</v>
       </c>
       <c r="F55" t="n">
-        <v>98.995</v>
+        <v>99.87870833333299</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -3368,17 +3364,17 @@
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>-0.00022625091296378</v>
+        <v>4.7142733177056e-05</v>
       </c>
       <c r="K55" t="n">
-        <v>3.7689709624737e-05</v>
+        <v>1.7093702048301e-05</v>
       </c>
       <c r="L55" t="n">
-        <v>268</v>
+        <v>71</v>
       </c>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="n">
-        <v>38798</v>
+        <v>123702</v>
       </c>
       <c r="O55" t="n">
         <v>0</v>
@@ -3388,24 +3384,24 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>207818</v>
+        <v>207816</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>20221229.400000</t>
+          <t>20220630.400000</t>
         </is>
       </c>
       <c r="C56" s="2" t="n">
-        <v>44657</v>
+        <v>44672</v>
       </c>
       <c r="D56" t="n">
-        <v>98.946833333334</v>
+        <v>99.88333333333399</v>
       </c>
       <c r="E56" t="n">
-        <v>98.95425</v>
+        <v>99.885277777778</v>
       </c>
       <c r="F56" t="n">
-        <v>98.95054166666699</v>
+        <v>99.884305555556</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3421,17 +3417,17 @@
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>-0.00044909675572837</v>
+        <v>5.6040194307991e-05</v>
       </c>
       <c r="K56" t="n">
-        <v>3.9513257712766e-05</v>
+        <v>1.6537346018779e-05</v>
       </c>
       <c r="L56" t="n">
-        <v>267</v>
+        <v>70</v>
       </c>
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="n">
-        <v>38798</v>
+        <v>123702</v>
       </c>
       <c r="O56" t="n">
         <v>0</v>
@@ -3441,24 +3437,24 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>207818</v>
+        <v>207816</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>20221229.400000</t>
+          <t>20220630.400000</t>
         </is>
       </c>
       <c r="C57" s="2" t="n">
-        <v>44658</v>
+        <v>44673</v>
       </c>
       <c r="D57" t="n">
-        <v>98.995111111111</v>
+        <v>99.87733333333399</v>
       </c>
       <c r="E57" t="n">
-        <v>99.0025</v>
+        <v>99.87925</v>
       </c>
       <c r="F57" t="n">
-        <v>98.998805555556</v>
+        <v>99.878291666667</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -3474,17 +3470,17 @@
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>0.00048775770274673</v>
+        <v>-6.020854683254901e-05</v>
       </c>
       <c r="K57" t="n">
-        <v>3.7828575269488e-05</v>
+        <v>1.7649631605135e-05</v>
       </c>
       <c r="L57" t="n">
-        <v>266</v>
+        <v>69</v>
       </c>
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="n">
-        <v>38798</v>
+        <v>123702</v>
       </c>
       <c r="O57" t="n">
         <v>0</v>
@@ -3494,24 +3490,24 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>207818</v>
+        <v>207816</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>20221229.400000</t>
+          <t>20220630.400000</t>
         </is>
       </c>
       <c r="C58" s="2" t="n">
-        <v>44659</v>
+        <v>44676</v>
       </c>
       <c r="D58" t="n">
-        <v>98.98416666666699</v>
+        <v>99.88633333333399</v>
       </c>
       <c r="E58" t="n">
-        <v>98.991527777778</v>
+        <v>99.888166666667</v>
       </c>
       <c r="F58" t="n">
-        <v>98.987847222222</v>
+        <v>99.88724999999999</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -3527,17 +3523,17 @@
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>-0.00011069157119449</v>
+        <v>8.9692496575906e-05</v>
       </c>
       <c r="K58" t="n">
-        <v>3.8389051772236e-05</v>
+        <v>1.7092971307727e-05</v>
       </c>
       <c r="L58" t="n">
-        <v>265</v>
+        <v>66</v>
       </c>
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="n">
-        <v>38798</v>
+        <v>123702</v>
       </c>
       <c r="O58" t="n">
         <v>0</v>
@@ -3547,24 +3543,24 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>207818</v>
+        <v>207816</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>20221229.400000</t>
+          <t>20220630.400000</t>
         </is>
       </c>
       <c r="C59" s="2" t="n">
-        <v>44662</v>
+        <v>44677</v>
       </c>
       <c r="D59" t="n">
-        <v>98.98111111111099</v>
+        <v>99.88805555555599</v>
       </c>
       <c r="E59" t="n">
-        <v>98.99202777777799</v>
+        <v>99.889861111111</v>
       </c>
       <c r="F59" t="n">
-        <v>98.986569444445</v>
+        <v>99.888958333334</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -3580,17 +3576,17 @@
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>-1.2908430818963e-05</v>
+        <v>1.7102616533531e-05</v>
       </c>
       <c r="K59" t="n">
-        <v>3.8877890205251e-05</v>
+        <v>1.7092825169606e-05</v>
       </c>
       <c r="L59" t="n">
-        <v>262</v>
+        <v>65</v>
       </c>
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="n">
-        <v>38798</v>
+        <v>123702</v>
       </c>
       <c r="O59" t="n">
         <v>0</v>
@@ -3600,24 +3596,24 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>207818</v>
+        <v>207816</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>20221229.400000</t>
+          <t>20220630.400000</t>
         </is>
       </c>
       <c r="C60" s="2" t="n">
-        <v>44663</v>
+        <v>44678</v>
       </c>
       <c r="D60" t="n">
-        <v>98.985</v>
+        <v>99.883555555556</v>
       </c>
       <c r="E60" t="n">
-        <v>98.99225</v>
+        <v>99.885333333334</v>
       </c>
       <c r="F60" t="n">
-        <v>98.988625</v>
+        <v>99.88444444444499</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -3633,17 +3629,17 @@
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>2.0766004591275e-05</v>
+        <v>-4.5189067582591e-05</v>
       </c>
       <c r="K60" t="n">
-        <v>3.89472852291e-05</v>
+        <v>1.8065995697872e-05</v>
       </c>
       <c r="L60" t="n">
-        <v>261</v>
+        <v>64</v>
       </c>
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="n">
-        <v>38798</v>
+        <v>123702</v>
       </c>
       <c r="O60" t="n">
         <v>0</v>
@@ -3653,24 +3649,24 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>207818</v>
+        <v>207816</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>20221229.400000</t>
+          <t>20220630.400000</t>
         </is>
       </c>
       <c r="C61" s="2" t="n">
-        <v>44664</v>
+        <v>44679</v>
       </c>
       <c r="D61" t="n">
-        <v>99.07555555555599</v>
+        <v>99.88799999999999</v>
       </c>
       <c r="E61" t="n">
-        <v>99.08277777777799</v>
+        <v>99.89149999999999</v>
       </c>
       <c r="F61" t="n">
-        <v>99.07916666666699</v>
+        <v>99.88974999999999</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -3686,17 +3682,17 @@
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>0.0009146673839207901</v>
+        <v>5.3116935124826e-05</v>
       </c>
       <c r="K61" t="n">
-        <v>3.5580738900713e-05</v>
+        <v>1.7509653971325e-05</v>
       </c>
       <c r="L61" t="n">
-        <v>260</v>
+        <v>63</v>
       </c>
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="n">
-        <v>38798</v>
+        <v>123702</v>
       </c>
       <c r="O61" t="n">
         <v>0</v>
@@ -3706,24 +3702,24 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>207818</v>
+        <v>207816</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>20221229.400000</t>
+          <t>20220630.400000</t>
         </is>
       </c>
       <c r="C62" s="2" t="n">
-        <v>44665</v>
+        <v>44680</v>
       </c>
       <c r="D62" t="n">
-        <v>99.01795833333399</v>
+        <v>99.88977777777799</v>
       </c>
       <c r="E62" t="n">
-        <v>99.025152777778</v>
+        <v>99.89149999999999</v>
       </c>
       <c r="F62" t="n">
-        <v>99.02155555555599</v>
+        <v>99.890638888889</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -3739,17 +3735,17 @@
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>-0.0005814654386924001</v>
+        <v>8.8986997053723e-06</v>
       </c>
       <c r="K62" t="n">
-        <v>3.7963809534619e-05</v>
+        <v>1.7648540969052e-05</v>
       </c>
       <c r="L62" t="n">
-        <v>259</v>
+        <v>62</v>
       </c>
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="n">
-        <v>38798</v>
+        <v>123700</v>
       </c>
       <c r="O62" t="n">
         <v>0</v>
@@ -3759,24 +3755,24 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>207816</v>
+        <v>207818</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>20220630.400000</t>
+          <t>20221229.400000</t>
         </is>
       </c>
       <c r="C63" s="2" t="n">
-        <v>44557</v>
+        <v>44588</v>
       </c>
       <c r="D63" t="n">
-        <v>99.892083333334</v>
+        <v>99.38866666666699</v>
       </c>
       <c r="E63" t="n">
-        <v>99.89465277777799</v>
+        <v>99.398</v>
       </c>
       <c r="F63" t="n">
-        <v>99.893368055556</v>
+        <v>99.393333333334</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -3791,15 +3787,19 @@
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>6.5261262353973e-05</v>
+      </c>
       <c r="K63" t="n">
-        <v>5.7669641486217e-06</v>
+        <v>1.8110546595083e-05</v>
       </c>
       <c r="L63" t="n">
-        <v>185</v>
+        <v>336</v>
       </c>
       <c r="M63" t="inlineStr"/>
-      <c r="N63" t="inlineStr"/>
+      <c r="N63" t="n">
+        <v>38798</v>
+      </c>
       <c r="O63" t="n">
         <v>0</v>
       </c>
@@ -3808,24 +3808,24 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>207816</v>
+        <v>207818</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>20220630.400000</t>
+          <t>20221229.400000</t>
         </is>
       </c>
       <c r="C64" s="2" t="n">
-        <v>44558</v>
+        <v>44589</v>
       </c>
       <c r="D64" t="n">
-        <v>99.897777777778</v>
+        <v>99.343958333334</v>
       </c>
       <c r="E64" t="n">
-        <v>99.902888888889</v>
+        <v>99.35791666666699</v>
       </c>
       <c r="F64" t="n">
-        <v>99.900333333334</v>
+        <v>99.3509375</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -3841,16 +3841,18 @@
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>6.9727129171459e-05</v>
+        <v>-0.00042654604601245</v>
       </c>
       <c r="K64" t="n">
-        <v>5.4193677671022e-06</v>
+        <v>1.9438151339111e-05</v>
       </c>
       <c r="L64" t="n">
-        <v>184</v>
+        <v>335</v>
       </c>
       <c r="M64" t="inlineStr"/>
-      <c r="N64" t="inlineStr"/>
+      <c r="N64" t="n">
+        <v>38798</v>
+      </c>
       <c r="O64" t="n">
         <v>0</v>
       </c>
@@ -3859,24 +3861,24 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>207816</v>
+        <v>207818</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>20220630.400000</t>
+          <t>20221229.400000</t>
         </is>
       </c>
       <c r="C65" s="2" t="n">
-        <v>44559</v>
+        <v>44592</v>
       </c>
       <c r="D65" t="n">
-        <v>99.900875</v>
+        <v>99.32677777777799</v>
       </c>
       <c r="E65" t="n">
-        <v>99.905958333334</v>
+        <v>99.340611111111</v>
       </c>
       <c r="F65" t="n">
-        <v>99.903416666667</v>
+        <v>99.333694444445</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -3892,16 +3894,18 @@
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>3.0864094547435e-05</v>
+        <v>-0.00017355704927858</v>
       </c>
       <c r="K65" t="n">
-        <v>5.2803281469167e-06</v>
+        <v>2.013660485135e-05</v>
       </c>
       <c r="L65" t="n">
-        <v>183</v>
+        <v>332</v>
       </c>
       <c r="M65" t="inlineStr"/>
-      <c r="N65" t="inlineStr"/>
+      <c r="N65" t="n">
+        <v>38798</v>
+      </c>
       <c r="O65" t="n">
         <v>0</v>
       </c>
@@ -3910,24 +3914,24 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>207816</v>
+        <v>207818</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>20220630.400000</t>
+          <t>20221229.400000</t>
         </is>
       </c>
       <c r="C66" s="2" t="n">
-        <v>44560</v>
+        <v>44593</v>
       </c>
       <c r="D66" t="n">
-        <v>99.90647222222199</v>
+        <v>99.328805555556</v>
       </c>
       <c r="E66" t="n">
-        <v>99.91152777777801</v>
+        <v>99.342597222222</v>
       </c>
       <c r="F66" t="n">
-        <v>99.90899999999999</v>
+        <v>99.33570138888899</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -3943,16 +3947,18 @@
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>5.5887311161396e-05</v>
+        <v>2.0204065253782e-05</v>
       </c>
       <c r="K66" t="n">
-        <v>5.0022763811096e-06</v>
+        <v>2.0136401660103e-05</v>
       </c>
       <c r="L66" t="n">
-        <v>182</v>
+        <v>331</v>
       </c>
       <c r="M66" t="inlineStr"/>
-      <c r="N66" t="inlineStr"/>
+      <c r="N66" t="n">
+        <v>38798</v>
+      </c>
       <c r="O66" t="n">
         <v>0</v>
       </c>
@@ -3961,24 +3967,24 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>207816</v>
+        <v>207818</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>20220630.400000</t>
+          <t>20221229.400000</t>
         </is>
       </c>
       <c r="C67" s="2" t="n">
-        <v>44561</v>
+        <v>44594</v>
       </c>
       <c r="D67" t="n">
-        <v>99.904472222222</v>
+        <v>99.362916666667</v>
       </c>
       <c r="E67" t="n">
-        <v>99.90949999999999</v>
+        <v>99.372083333334</v>
       </c>
       <c r="F67" t="n">
-        <v>99.906986111111</v>
+        <v>99.36749999999999</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -3994,17 +4000,17 @@
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>-2.0157231969947e-05</v>
+        <v>0.00032011261476499</v>
       </c>
       <c r="K67" t="n">
-        <v>5.141280312109e-06</v>
+        <v>1.9227538060123e-05</v>
       </c>
       <c r="L67" t="n">
-        <v>181</v>
+        <v>330</v>
       </c>
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="n">
-        <v>58198</v>
+        <v>38798</v>
       </c>
       <c r="O67" t="n">
         <v>0</v>
@@ -4014,24 +4020,24 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>207816</v>
+        <v>207818</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>20220630.400000</t>
+          <t>20221229.400000</t>
         </is>
       </c>
       <c r="C68" s="2" t="n">
-        <v>44564</v>
+        <v>44595</v>
       </c>
       <c r="D68" t="n">
-        <v>99.896166666667</v>
+        <v>99.346569444445</v>
       </c>
       <c r="E68" t="n">
-        <v>99.90111111111099</v>
+        <v>99.351138888889</v>
       </c>
       <c r="F68" t="n">
-        <v>99.898638888889</v>
+        <v>99.348854166667</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -4047,17 +4053,17 @@
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>-8.3549935266225e-05</v>
+        <v>-0.00018764518915493</v>
       </c>
       <c r="K68" t="n">
-        <v>5.6973323721801e-06</v>
+        <v>1.9856384062482e-05</v>
       </c>
       <c r="L68" t="n">
-        <v>178</v>
+        <v>329</v>
       </c>
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="n">
-        <v>58198</v>
+        <v>38798</v>
       </c>
       <c r="O68" t="n">
         <v>0</v>
@@ -4067,24 +4073,24 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>207816</v>
+        <v>207818</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>20220630.400000</t>
+          <t>20221229.400000</t>
         </is>
       </c>
       <c r="C69" s="2" t="n">
-        <v>44565</v>
+        <v>44596</v>
       </c>
       <c r="D69" t="n">
-        <v>99.90412499999999</v>
+        <v>99.262</v>
       </c>
       <c r="E69" t="n">
-        <v>99.90904166666699</v>
+        <v>99.271111111111</v>
       </c>
       <c r="F69" t="n">
-        <v>99.906583333334</v>
+        <v>99.266555555556</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -4100,17 +4106,17 @@
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>7.952505192076e-05</v>
+        <v>-0.0008283800734433701</v>
       </c>
       <c r="K69" t="n">
-        <v>5.280244476139299e-06</v>
+        <v>2.2443517458453e-05</v>
       </c>
       <c r="L69" t="n">
-        <v>177</v>
+        <v>328</v>
       </c>
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="n">
-        <v>58198</v>
+        <v>38798</v>
       </c>
       <c r="O69" t="n">
         <v>0</v>
@@ -4120,24 +4126,24 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>207816</v>
+        <v>207818</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>20220630.400000</t>
+          <t>20221229.400000</t>
         </is>
       </c>
       <c r="C70" s="2" t="n">
-        <v>44566</v>
+        <v>44599</v>
       </c>
       <c r="D70" t="n">
-        <v>99.904666666667</v>
+        <v>99.264236111111</v>
       </c>
       <c r="E70" t="n">
-        <v>99.909555555556</v>
+        <v>99.27326388888901</v>
       </c>
       <c r="F70" t="n">
-        <v>99.90711111111099</v>
+        <v>99.26875</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -4153,17 +4159,17 @@
         <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>5.2827127118263e-06</v>
+        <v>2.2106583956473e-05</v>
       </c>
       <c r="K70" t="n">
-        <v>5.2802305313542e-06</v>
+        <v>2.2582668882348e-05</v>
       </c>
       <c r="L70" t="n">
-        <v>176</v>
+        <v>325</v>
       </c>
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="n">
-        <v>58198</v>
+        <v>38798</v>
       </c>
       <c r="O70" t="n">
         <v>0</v>
@@ -4173,24 +4179,24 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>207816</v>
+        <v>207818</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>20220630.400000</t>
+          <t>20221229.400000</t>
         </is>
       </c>
       <c r="C71" s="2" t="n">
-        <v>44567</v>
+        <v>44600</v>
       </c>
       <c r="D71" t="n">
-        <v>99.895486111111</v>
+        <v>99.262</v>
       </c>
       <c r="E71" t="n">
-        <v>99.897916666667</v>
+        <v>99.271</v>
       </c>
       <c r="F71" t="n">
-        <v>99.896701388889</v>
+        <v>99.26649999999999</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -4206,17 +4212,17 @@
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>-0.00010419400687743</v>
+        <v>-2.2665743247534e-05</v>
       </c>
       <c r="K71" t="n">
-        <v>5.905828622676e-06</v>
+        <v>2.2722325268156e-05</v>
       </c>
       <c r="L71" t="n">
-        <v>175</v>
+        <v>324</v>
       </c>
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="n">
-        <v>58198</v>
+        <v>38798</v>
       </c>
       <c r="O71" t="n">
         <v>0</v>
@@ -4226,24 +4232,24 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>207816</v>
+        <v>207818</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>20220630.400000</t>
+          <t>20221229.400000</t>
         </is>
       </c>
       <c r="C72" s="2" t="n">
-        <v>44568</v>
+        <v>44601</v>
       </c>
       <c r="D72" t="n">
-        <v>99.896083333334</v>
+        <v>99.268763888889</v>
       </c>
       <c r="E72" t="n">
-        <v>99.900916666667</v>
+        <v>99.277736111111</v>
       </c>
       <c r="F72" t="n">
-        <v>99.8985</v>
+        <v>99.27325</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -4259,17 +4265,17 @@
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>1.8004709726227e-05</v>
+        <v>6.799877098495101e-05</v>
       </c>
       <c r="K72" t="n">
-        <v>5.8362957547418e-06</v>
+        <v>2.2582157670926e-05</v>
       </c>
       <c r="L72" t="n">
-        <v>174</v>
+        <v>323</v>
       </c>
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="n">
-        <v>58198</v>
+        <v>38798</v>
       </c>
       <c r="O72" t="n">
         <v>0</v>
@@ -4279,24 +4285,24 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>207816</v>
+        <v>207818</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>20220630.400000</t>
+          <t>20221229.400000</t>
         </is>
       </c>
       <c r="C73" s="2" t="n">
-        <v>44571</v>
+        <v>44602</v>
       </c>
       <c r="D73" t="n">
-        <v>99.89075</v>
+        <v>99.078722222222</v>
       </c>
       <c r="E73" t="n">
-        <v>99.8955</v>
+        <v>99.087666666667</v>
       </c>
       <c r="F73" t="n">
-        <v>99.893125</v>
+        <v>99.083194444445</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -4312,17 +4318,17 @@
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>-5.380461168093101e-05</v>
+        <v>-0.0019144689587129</v>
       </c>
       <c r="K73" t="n">
-        <v>6.2533422252982e-06</v>
+        <v>2.8603542933067e-05</v>
       </c>
       <c r="L73" t="n">
-        <v>171</v>
+        <v>322</v>
       </c>
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="n">
-        <v>58198</v>
+        <v>38798</v>
       </c>
       <c r="O73" t="n">
         <v>0</v>
@@ -4332,24 +4338,24 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>207816</v>
+        <v>207818</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>20220630.400000</t>
+          <t>20221229.400000</t>
         </is>
       </c>
       <c r="C74" s="2" t="n">
-        <v>44572</v>
+        <v>44603</v>
       </c>
       <c r="D74" t="n">
-        <v>99.889027777778</v>
+        <v>99.081583333334</v>
       </c>
       <c r="E74" t="n">
-        <v>99.896111111111</v>
+        <v>99.152916666667</v>
       </c>
       <c r="F74" t="n">
-        <v>99.892569444445</v>
+        <v>99.11725</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -4365,17 +4371,17 @@
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>-5.561499407973199e-06</v>
+        <v>0.00034370667746942</v>
       </c>
       <c r="K74" t="n">
-        <v>6.3228413847005e-06</v>
+        <v>2.7622097198091e-05</v>
       </c>
       <c r="L74" t="n">
-        <v>170</v>
+        <v>321</v>
       </c>
       <c r="M74" t="inlineStr"/>
       <c r="N74" t="n">
-        <v>58198</v>
+        <v>38798</v>
       </c>
       <c r="O74" t="n">
         <v>0</v>
@@ -4385,24 +4391,24 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>207816</v>
+        <v>207818</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>20220630.400000</t>
+          <t>20221229.400000</t>
         </is>
       </c>
       <c r="C75" s="2" t="n">
-        <v>44573</v>
+        <v>44606</v>
       </c>
       <c r="D75" t="n">
-        <v>99.892027777778</v>
+        <v>99.134333333334</v>
       </c>
       <c r="E75" t="n">
-        <v>99.894375</v>
+        <v>99.143166666667</v>
       </c>
       <c r="F75" t="n">
-        <v>99.893201388889</v>
+        <v>99.13875</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -4418,17 +4424,17 @@
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>6.3262407599968e-06</v>
+        <v>0.00021691481553409</v>
       </c>
       <c r="K75" t="n">
-        <v>6.3228213884604e-06</v>
+        <v>2.7200634929781e-05</v>
       </c>
       <c r="L75" t="n">
-        <v>169</v>
+        <v>318</v>
       </c>
       <c r="M75" t="inlineStr"/>
       <c r="N75" t="n">
-        <v>58198</v>
+        <v>38798</v>
       </c>
       <c r="O75" t="n">
         <v>0</v>
@@ -4438,24 +4444,24 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>207816</v>
+        <v>207818</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>20220630.400000</t>
+          <t>20221229.400000</t>
         </is>
       </c>
       <c r="C76" s="2" t="n">
-        <v>44574</v>
+        <v>44607</v>
       </c>
       <c r="D76" t="n">
-        <v>99.88799999999999</v>
+        <v>99.145861111111</v>
       </c>
       <c r="E76" t="n">
-        <v>99.892666666667</v>
+        <v>99.154666666667</v>
       </c>
       <c r="F76" t="n">
-        <v>99.890333333334</v>
+        <v>99.150263888889</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -4471,17 +4477,17 @@
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>-2.871121873845e-05</v>
+        <v>0.00011613913720824</v>
       </c>
       <c r="K76" t="n">
-        <v>6.5313597950189e-06</v>
+        <v>2.6920093104383e-05</v>
       </c>
       <c r="L76" t="n">
-        <v>168</v>
+        <v>317</v>
       </c>
       <c r="M76" t="inlineStr"/>
       <c r="N76" t="n">
-        <v>58198</v>
+        <v>38798</v>
       </c>
       <c r="O76" t="n">
         <v>0</v>
@@ -4491,24 +4497,24 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>207816</v>
+        <v>207818</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>20220630.400000</t>
+          <t>20221229.400000</t>
         </is>
       </c>
       <c r="C77" s="2" t="n">
-        <v>44575</v>
+        <v>44608</v>
       </c>
       <c r="D77" t="n">
-        <v>99.879388888889</v>
+        <v>99.148555555556</v>
       </c>
       <c r="E77" t="n">
-        <v>99.88866666666699</v>
+        <v>99.174888888889</v>
       </c>
       <c r="F77" t="n">
-        <v>99.884027777778</v>
+        <v>99.161722222222</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -4524,17 +4530,17 @@
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>-6.312478240022401e-05</v>
+        <v>0.00011556533370567</v>
       </c>
       <c r="K77" t="n">
-        <v>6.9484743737504e-06</v>
+        <v>2.6639591321337e-05</v>
       </c>
       <c r="L77" t="n">
-        <v>167</v>
+        <v>316</v>
       </c>
       <c r="M77" t="inlineStr"/>
       <c r="N77" t="n">
-        <v>58198</v>
+        <v>38798</v>
       </c>
       <c r="O77" t="n">
         <v>0</v>
@@ -4544,24 +4550,24 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>207816</v>
+        <v>207818</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>20220630.400000</t>
+          <t>20221229.400000</t>
         </is>
       </c>
       <c r="C78" s="2" t="n">
-        <v>44579</v>
+        <v>44609</v>
       </c>
       <c r="D78" t="n">
-        <v>99.868694444445</v>
+        <v>99.09</v>
       </c>
       <c r="E78" t="n">
-        <v>99.870958333334</v>
+        <v>99.21249999999999</v>
       </c>
       <c r="F78" t="n">
-        <v>99.869826388889</v>
+        <v>99.15125</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -4577,17 +4583,17 @@
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>-0.00014217877677575</v>
+        <v>-0.00010560750648074</v>
       </c>
       <c r="K78" t="n">
-        <v>7.991313530996299e-06</v>
+        <v>2.7059441082186e-05</v>
       </c>
       <c r="L78" t="n">
-        <v>163</v>
+        <v>315</v>
       </c>
       <c r="M78" t="inlineStr"/>
       <c r="N78" t="n">
-        <v>58198</v>
+        <v>38798</v>
       </c>
       <c r="O78" t="n">
         <v>0</v>
@@ -4597,24 +4603,24 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>207816</v>
+        <v>207818</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>20220630.400000</t>
+          <t>20221229.400000</t>
         </is>
       </c>
       <c r="C79" s="2" t="n">
-        <v>44580</v>
+        <v>44610</v>
       </c>
       <c r="D79" t="n">
-        <v>99.8695</v>
+        <v>99.215</v>
       </c>
       <c r="E79" t="n">
-        <v>99.874</v>
+        <v>99.22372222222199</v>
       </c>
       <c r="F79" t="n">
-        <v>99.87174999999999</v>
+        <v>99.219361111111</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -4630,17 +4636,17 @@
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>1.926118408986e-05</v>
+        <v>0.0006869415273243001</v>
       </c>
       <c r="K79" t="n">
-        <v>7.9217475738079e-06</v>
+        <v>2.4958656846808e-05</v>
       </c>
       <c r="L79" t="n">
-        <v>162</v>
+        <v>314</v>
       </c>
       <c r="M79" t="inlineStr"/>
       <c r="N79" t="n">
-        <v>58198</v>
+        <v>38798</v>
       </c>
       <c r="O79" t="n">
         <v>0</v>
@@ -4650,24 +4656,24 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>207816</v>
+        <v>207818</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>20220630.400000</t>
+          <t>20221229.400000</t>
         </is>
       </c>
       <c r="C80" s="2" t="n">
-        <v>44581</v>
+        <v>44614</v>
       </c>
       <c r="D80" t="n">
-        <v>99.872541666667</v>
+        <v>99.190555555556</v>
       </c>
       <c r="E80" t="n">
-        <v>99.877013888889</v>
+        <v>99.199166666667</v>
       </c>
       <c r="F80" t="n">
-        <v>99.87477777777799</v>
+        <v>99.194861111111</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -4683,17 +4689,17 @@
         <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>3.0316658892895e-05</v>
+        <v>-0.00024692761297422</v>
       </c>
       <c r="K80" t="n">
-        <v>7.782651600027899e-06</v>
+        <v>2.6077343079079e-05</v>
       </c>
       <c r="L80" t="n">
-        <v>161</v>
+        <v>310</v>
       </c>
       <c r="M80" t="inlineStr"/>
       <c r="N80" t="n">
-        <v>58198</v>
+        <v>38798</v>
       </c>
       <c r="O80" t="n">
         <v>0</v>
@@ -4703,24 +4709,24 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>207816</v>
+        <v>207818</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>20220630.400000</t>
+          <t>20221229.400000</t>
         </is>
       </c>
       <c r="C81" s="2" t="n">
-        <v>44582</v>
+        <v>44615</v>
       </c>
       <c r="D81" t="n">
-        <v>99.87111111111099</v>
+        <v>99.184583333334</v>
       </c>
       <c r="E81" t="n">
-        <v>99.87555555555601</v>
+        <v>99.193166666667</v>
       </c>
       <c r="F81" t="n">
-        <v>99.873333333334</v>
+        <v>99.188875</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -4736,17 +4742,17 @@
         <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>-1.446255477691e-05</v>
+        <v>-6.034698818134701e-05</v>
       </c>
       <c r="K81" t="n">
-        <v>7.921684793533e-06</v>
+        <v>2.6357039364558e-05</v>
       </c>
       <c r="L81" t="n">
-        <v>160</v>
+        <v>309</v>
       </c>
       <c r="M81" t="inlineStr"/>
       <c r="N81" t="n">
-        <v>58198</v>
+        <v>38798</v>
       </c>
       <c r="O81" t="n">
         <v>0</v>
@@ -4756,24 +4762,24 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>207816</v>
+        <v>207818</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>20220630.400000</t>
+          <t>20221229.400000</t>
         </is>
       </c>
       <c r="C82" s="2" t="n">
-        <v>44585</v>
+        <v>44616</v>
       </c>
       <c r="D82" t="n">
-        <v>99.875708333334</v>
+        <v>99.251388888889</v>
       </c>
       <c r="E82" t="n">
-        <v>99.880069444445</v>
+        <v>99.259944444445</v>
       </c>
       <c r="F82" t="n">
-        <v>99.877888888889</v>
+        <v>99.255666666667</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -4789,17 +4795,17 @@
         <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>4.5613332443283e-05</v>
+        <v>0.00067337860890805</v>
       </c>
       <c r="K82" t="n">
-        <v>7.7825304126013e-06</v>
+        <v>2.4257055754509e-05</v>
       </c>
       <c r="L82" t="n">
-        <v>157</v>
+        <v>308</v>
       </c>
       <c r="M82" t="inlineStr"/>
       <c r="N82" t="n">
-        <v>58198</v>
+        <v>38798</v>
       </c>
       <c r="O82" t="n">
         <v>0</v>
@@ -4809,24 +4815,24 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>207816</v>
+        <v>207818</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>20220630.400000</t>
+          <t>20221229.400000</t>
         </is>
       </c>
       <c r="C83" s="2" t="n">
-        <v>44586</v>
+        <v>44617</v>
       </c>
       <c r="D83" t="n">
-        <v>99.87649999999999</v>
+        <v>99.189861111111</v>
       </c>
       <c r="E83" t="n">
-        <v>99.880833333333</v>
+        <v>99.198388888889</v>
       </c>
       <c r="F83" t="n">
-        <v>99.878666666667</v>
+        <v>99.194125</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -4842,17 +4848,17 @@
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>7.7872869203015e-06</v>
+        <v>-0.0006200317698064601</v>
       </c>
       <c r="K83" t="n">
-        <v>7.782500116530601e-06</v>
+        <v>2.6356342805813e-05</v>
       </c>
       <c r="L83" t="n">
-        <v>156</v>
+        <v>307</v>
       </c>
       <c r="M83" t="inlineStr"/>
       <c r="N83" t="n">
-        <v>58198</v>
+        <v>38798</v>
       </c>
       <c r="O83" t="n">
         <v>0</v>
@@ -4862,24 +4868,24 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>207816</v>
+        <v>207818</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>20220630.400000</t>
+          <t>20221229.400000</t>
         </is>
       </c>
       <c r="C84" s="2" t="n">
-        <v>44587</v>
+        <v>44620</v>
       </c>
       <c r="D84" t="n">
-        <v>99.87083333333401</v>
+        <v>99.248444444445</v>
       </c>
       <c r="E84" t="n">
-        <v>99.875138888889</v>
+        <v>99.25688888888899</v>
       </c>
       <c r="F84" t="n">
-        <v>99.872986111111</v>
+        <v>99.252666666667</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -4895,17 +4901,17 @@
         <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>-5.687456335897001e-05</v>
+        <v>0.0005901727210827001</v>
       </c>
       <c r="K84" t="n">
-        <v>8.199652896497101e-06</v>
+        <v>2.4675653301753e-05</v>
       </c>
       <c r="L84" t="n">
-        <v>155</v>
+        <v>304</v>
       </c>
       <c r="M84" t="inlineStr"/>
       <c r="N84" t="n">
-        <v>58198</v>
+        <v>38798</v>
       </c>
       <c r="O84" t="n">
         <v>0</v>
@@ -4915,24 +4921,24 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>207816</v>
+        <v>207818</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>20220630.400000</t>
+          <t>20221229.400000</t>
         </is>
       </c>
       <c r="C85" s="2" t="n">
-        <v>44588</v>
+        <v>44621</v>
       </c>
       <c r="D85" t="n">
-        <v>99.858833333334</v>
+        <v>99.410833333334</v>
       </c>
       <c r="E85" t="n">
-        <v>99.863111111111</v>
+        <v>99.41924999999999</v>
       </c>
       <c r="F85" t="n">
-        <v>99.860972222222</v>
+        <v>99.41504166666699</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -4948,17 +4954,17 @@
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>-0.00012029167602479</v>
+        <v>0.0016359761954339</v>
       </c>
       <c r="K85" t="n">
-        <v>9.034059159777e-06</v>
+        <v>1.9362241450906e-05</v>
       </c>
       <c r="L85" t="n">
-        <v>154</v>
+        <v>303</v>
       </c>
       <c r="M85" t="inlineStr"/>
       <c r="N85" t="n">
-        <v>58198</v>
+        <v>38798</v>
       </c>
       <c r="O85" t="n">
         <v>0</v>
@@ -4968,24 +4974,24 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>207816</v>
+        <v>207818</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>20220630.400000</t>
+          <t>20221229.400000</t>
         </is>
       </c>
       <c r="C86" s="2" t="n">
-        <v>44589</v>
+        <v>44622</v>
       </c>
       <c r="D86" t="n">
-        <v>99.864</v>
+        <v>99.3205</v>
       </c>
       <c r="E86" t="n">
-        <v>99.86825</v>
+        <v>99.328888888889</v>
       </c>
       <c r="F86" t="n">
-        <v>99.866125</v>
+        <v>99.324694444445</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -5001,17 +5007,17 @@
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>5.159951543760601e-05</v>
+        <v>-0.0009087882548513101</v>
       </c>
       <c r="K86" t="n">
-        <v>8.7558622639042e-06</v>
+        <v>2.2436955671791e-05</v>
       </c>
       <c r="L86" t="n">
-        <v>153</v>
+        <v>302</v>
       </c>
       <c r="M86" t="inlineStr"/>
       <c r="N86" t="n">
-        <v>58198</v>
+        <v>38798</v>
       </c>
       <c r="O86" t="n">
         <v>0</v>
@@ -5021,24 +5027,24 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>207816</v>
+        <v>207818</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>20220630.400000</t>
+          <t>20221229.400000</t>
         </is>
       </c>
       <c r="C87" s="2" t="n">
-        <v>44592</v>
+        <v>44623</v>
       </c>
       <c r="D87" t="n">
-        <v>99.86041666666699</v>
+        <v>99.214055555556</v>
       </c>
       <c r="E87" t="n">
-        <v>99.866666666667</v>
+        <v>99.222416666667</v>
       </c>
       <c r="F87" t="n">
-        <v>99.863541666667</v>
+        <v>99.218236111111</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -5054,17 +5060,17 @@
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>-2.5867964070291e-05</v>
+        <v>-0.0010718214028122</v>
       </c>
       <c r="K87" t="n">
-        <v>9.103434833528499e-06</v>
+        <v>2.6074275172823e-05</v>
       </c>
       <c r="L87" t="n">
-        <v>150</v>
+        <v>301</v>
       </c>
       <c r="M87" t="inlineStr"/>
       <c r="N87" t="n">
-        <v>58198</v>
+        <v>38798</v>
       </c>
       <c r="O87" t="n">
         <v>0</v>
@@ -5074,24 +5080,24 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>207816</v>
+        <v>207818</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>20220630.400000</t>
+          <t>20221229.400000</t>
         </is>
       </c>
       <c r="C88" s="2" t="n">
-        <v>44593</v>
+        <v>44624</v>
       </c>
       <c r="D88" t="n">
-        <v>99.865486111111</v>
+        <v>99.26666666666699</v>
       </c>
       <c r="E88" t="n">
-        <v>99.867555555556</v>
+        <v>99.27499999999999</v>
       </c>
       <c r="F88" t="n">
-        <v>99.86652083333399</v>
+        <v>99.270833333334</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -5107,17 +5113,17 @@
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>2.9832375429027e-05</v>
+        <v>0.00053011648144325</v>
       </c>
       <c r="K88" t="n">
-        <v>8.9643174132666e-06</v>
+        <v>2.4394602692266e-05</v>
       </c>
       <c r="L88" t="n">
-        <v>149</v>
+        <v>300</v>
       </c>
       <c r="M88" t="inlineStr"/>
       <c r="N88" t="n">
-        <v>58198</v>
+        <v>38798</v>
       </c>
       <c r="O88" t="n">
         <v>0</v>
@@ -5127,24 +5133,24 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>207816</v>
+        <v>207818</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>20220630.400000</t>
+          <t>20221229.400000</t>
         </is>
       </c>
       <c r="C89" s="2" t="n">
-        <v>44594</v>
+        <v>44627</v>
       </c>
       <c r="D89" t="n">
-        <v>99.862277777778</v>
+        <v>99.241</v>
       </c>
       <c r="E89" t="n">
-        <v>99.88077777777799</v>
+        <v>99.24925</v>
       </c>
       <c r="F89" t="n">
-        <v>99.871527777778</v>
+        <v>99.245125</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -5160,17 +5166,17 @@
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>5.0136366047898e-05</v>
+        <v>-0.00025897166841561</v>
       </c>
       <c r="K89" t="n">
-        <v>8.686136387259699e-06</v>
+        <v>2.5513084225752e-05</v>
       </c>
       <c r="L89" t="n">
-        <v>148</v>
+        <v>297</v>
       </c>
       <c r="M89" t="inlineStr"/>
       <c r="N89" t="n">
-        <v>58198</v>
+        <v>38798</v>
       </c>
       <c r="O89" t="n">
         <v>0</v>
@@ -5188,16 +5194,16 @@
         </is>
       </c>
       <c r="C90" s="2" t="n">
-        <v>44557</v>
+        <v>44628</v>
       </c>
       <c r="D90" t="n">
-        <v>99.61770833333399</v>
+        <v>99.227111111111</v>
       </c>
       <c r="E90" t="n">
-        <v>99.627902777778</v>
+        <v>99.235333333334</v>
       </c>
       <c r="F90" t="n">
-        <v>99.622805555556</v>
+        <v>99.231222222222</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -5212,15 +5218,19 @@
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>-0.00014008524628072</v>
+      </c>
       <c r="K90" t="n">
-        <v>1.0297210262064e-05</v>
+        <v>2.6072571196566e-05</v>
       </c>
       <c r="L90" t="n">
-        <v>367</v>
+        <v>296</v>
       </c>
       <c r="M90" t="inlineStr"/>
-      <c r="N90" t="inlineStr"/>
+      <c r="N90" t="n">
+        <v>38798</v>
+      </c>
       <c r="O90" t="n">
         <v>0</v>
       </c>
@@ -5237,16 +5247,16 @@
         </is>
       </c>
       <c r="C91" s="2" t="n">
-        <v>44558</v>
+        <v>44629</v>
       </c>
       <c r="D91" t="n">
-        <v>99.608583333334</v>
+        <v>99.192847222222</v>
       </c>
       <c r="E91" t="n">
-        <v>99.613666666667</v>
+        <v>99.201041666667</v>
       </c>
       <c r="F91" t="n">
-        <v>99.611125</v>
+        <v>99.19694444444499</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -5262,16 +5272,18 @@
         <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>-0.00011724780777286</v>
+        <v>-0.00034543339293952</v>
       </c>
       <c r="K91" t="n">
-        <v>1.0645712699487e-05</v>
+        <v>2.7332115738918e-05</v>
       </c>
       <c r="L91" t="n">
-        <v>366</v>
+        <v>295</v>
       </c>
       <c r="M91" t="inlineStr"/>
-      <c r="N91" t="inlineStr"/>
+      <c r="N91" t="n">
+        <v>38798</v>
+      </c>
       <c r="O91" t="n">
         <v>0</v>
       </c>
@@ -5288,16 +5300,16 @@
         </is>
       </c>
       <c r="C92" s="2" t="n">
-        <v>44559</v>
+        <v>44630</v>
       </c>
       <c r="D92" t="n">
-        <v>99.619791666667</v>
+        <v>99.195583333334</v>
       </c>
       <c r="E92" t="n">
-        <v>99.624861111111</v>
+        <v>99.20375</v>
       </c>
       <c r="F92" t="n">
-        <v>99.62232638888899</v>
+        <v>99.199666666667</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -5313,16 +5325,18 @@
         <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>0.0001124511834286</v>
+        <v>2.7442601558584e-05</v>
       </c>
       <c r="K92" t="n">
-        <v>1.0366810922586e-05</v>
+        <v>2.7331741217563e-05</v>
       </c>
       <c r="L92" t="n">
-        <v>365</v>
+        <v>294</v>
       </c>
       <c r="M92" t="inlineStr"/>
-      <c r="N92" t="inlineStr"/>
+      <c r="N92" t="n">
+        <v>38798</v>
+      </c>
       <c r="O92" t="n">
         <v>0</v>
       </c>
@@ -5339,16 +5353,16 @@
         </is>
       </c>
       <c r="C93" s="2" t="n">
-        <v>44560</v>
+        <v>44631</v>
       </c>
       <c r="D93" t="n">
-        <v>99.63094444444499</v>
+        <v>99.153555555556</v>
       </c>
       <c r="E93" t="n">
-        <v>99.64105555555599</v>
+        <v>99.161694444445</v>
       </c>
       <c r="F93" t="n">
-        <v>99.636</v>
+        <v>99.157625</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -5364,16 +5378,18 @@
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>0.0001372544850812</v>
+        <v>-0.00042380854774392</v>
       </c>
       <c r="K93" t="n">
-        <v>1.0018244286257e-05</v>
+        <v>2.887177576086e-05</v>
       </c>
       <c r="L93" t="n">
-        <v>364</v>
+        <v>293</v>
       </c>
       <c r="M93" t="inlineStr"/>
-      <c r="N93" t="inlineStr"/>
+      <c r="N93" t="n">
+        <v>38798</v>
+      </c>
       <c r="O93" t="n">
         <v>0</v>
       </c>
@@ -5390,16 +5406,16 @@
         </is>
       </c>
       <c r="C94" s="2" t="n">
-        <v>44561</v>
+        <v>44634</v>
       </c>
       <c r="D94" t="n">
-        <v>99.616833333334</v>
+        <v>99.13</v>
       </c>
       <c r="E94" t="n">
-        <v>99.626916666667</v>
+        <v>99.13805555555599</v>
       </c>
       <c r="F94" t="n">
-        <v>99.621875</v>
+        <v>99.134027777778</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -5415,13 +5431,13 @@
         <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>-0.00014176602834304</v>
+        <v>-0.00023797687996476</v>
       </c>
       <c r="K94" t="n">
-        <v>1.0436410463619e-05</v>
+        <v>2.9991156892716e-05</v>
       </c>
       <c r="L94" t="n">
-        <v>363</v>
+        <v>290</v>
       </c>
       <c r="M94" t="inlineStr"/>
       <c r="N94" t="n">
@@ -5443,16 +5459,16 @@
         </is>
       </c>
       <c r="C95" s="2" t="n">
-        <v>44564</v>
+        <v>44635</v>
       </c>
       <c r="D95" t="n">
-        <v>99.61</v>
+        <v>99.124972222222</v>
       </c>
       <c r="E95" t="n">
-        <v>99.62</v>
+        <v>99.133</v>
       </c>
       <c r="F95" t="n">
-        <v>99.61499999999999</v>
+        <v>99.128986111111</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -5468,13 +5484,13 @@
         <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>-6.9010947645736e-05</v>
+        <v>-5.0857074807476e-05</v>
       </c>
       <c r="K95" t="n">
-        <v>1.0715084242513e-05</v>
+        <v>3.0270913034464e-05</v>
       </c>
       <c r="L95" t="n">
-        <v>360</v>
+        <v>289</v>
       </c>
       <c r="M95" t="inlineStr"/>
       <c r="N95" t="n">
@@ -5496,16 +5512,16 @@
         </is>
       </c>
       <c r="C96" s="2" t="n">
-        <v>44565</v>
+        <v>44636</v>
       </c>
       <c r="D96" t="n">
-        <v>99.631027777778</v>
+        <v>99.152</v>
       </c>
       <c r="E96" t="n">
-        <v>99.645986111111</v>
+        <v>99.16</v>
       </c>
       <c r="F96" t="n">
-        <v>99.638506944445</v>
+        <v>99.15599999999999</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -5521,13 +5537,13 @@
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>0.00023597795958882</v>
+        <v>0.00027251251070615</v>
       </c>
       <c r="K96" t="n">
-        <v>1.0087688596476e-05</v>
+        <v>2.9429925281402e-05</v>
       </c>
       <c r="L96" t="n">
-        <v>359</v>
+        <v>288</v>
       </c>
       <c r="M96" t="inlineStr"/>
       <c r="N96" t="n">
@@ -5549,16 +5565,16 @@
         </is>
       </c>
       <c r="C97" s="2" t="n">
-        <v>44566</v>
+        <v>44637</v>
       </c>
       <c r="D97" t="n">
-        <v>99.607194444445</v>
+        <v>99.146972222222</v>
       </c>
       <c r="E97" t="n">
-        <v>99.61216666666699</v>
+        <v>99.15494444444499</v>
       </c>
       <c r="F97" t="n">
-        <v>99.609680555556</v>
+        <v>99.150958333334</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -5574,13 +5590,13 @@
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>-0.00028930972344823</v>
+        <v>-5.084580526314e-05</v>
       </c>
       <c r="K97" t="n">
-        <v>1.0924111138868e-05</v>
+        <v>2.9709636163758e-05</v>
       </c>
       <c r="L97" t="n">
-        <v>358</v>
+        <v>287</v>
       </c>
       <c r="M97" t="inlineStr"/>
       <c r="N97" t="n">
@@ -5602,16 +5618,16 @@
         </is>
       </c>
       <c r="C98" s="2" t="n">
-        <v>44567</v>
+        <v>44638</v>
       </c>
       <c r="D98" t="n">
-        <v>99.57854166666699</v>
+        <v>99.134055555556</v>
       </c>
       <c r="E98" t="n">
-        <v>99.598375</v>
+        <v>99.142</v>
       </c>
       <c r="F98" t="n">
-        <v>99.588458333334</v>
+        <v>99.13802777777799</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -5627,13 +5643,13 @@
         <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>-0.00021305381268019</v>
+        <v>-0.00013041281469097</v>
       </c>
       <c r="K98" t="n">
-        <v>1.1551563864377e-05</v>
+        <v>3.0269534609021e-05</v>
       </c>
       <c r="L98" t="n">
-        <v>357</v>
+        <v>286</v>
       </c>
       <c r="M98" t="inlineStr"/>
       <c r="N98" t="n">
@@ -5655,16 +5671,16 @@
         </is>
       </c>
       <c r="C99" s="2" t="n">
-        <v>44568</v>
+        <v>44641</v>
       </c>
       <c r="D99" t="n">
-        <v>99.589611111111</v>
+        <v>99.11169444444499</v>
       </c>
       <c r="E99" t="n">
-        <v>99.59949999999999</v>
+        <v>99.119555555556</v>
       </c>
       <c r="F99" t="n">
-        <v>99.594555555556</v>
+        <v>99.11562499999999</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -5680,13 +5696,13 @@
         <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>6.1224185254633e-05</v>
+        <v>-0.00022597562489343</v>
       </c>
       <c r="K99" t="n">
-        <v>1.1412039293404e-05</v>
+        <v>3.1389003743506e-05</v>
       </c>
       <c r="L99" t="n">
-        <v>356</v>
+        <v>283</v>
       </c>
       <c r="M99" t="inlineStr"/>
       <c r="N99" t="n">
@@ -5708,16 +5724,16 @@
         </is>
       </c>
       <c r="C100" s="2" t="n">
-        <v>44571</v>
+        <v>44642</v>
       </c>
       <c r="D100" t="n">
-        <v>99.573458333334</v>
+        <v>99.0835</v>
       </c>
       <c r="E100" t="n">
-        <v>99.58816666666699</v>
+        <v>99.09133333333399</v>
       </c>
       <c r="F100" t="n">
-        <v>99.58081249999999</v>
+        <v>99.087416666667</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5733,13 +5749,13 @@
         <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>-0.00013799002845987</v>
+        <v>-0.00028460026694403</v>
       </c>
       <c r="K100" t="n">
-        <v>1.1899959032328e-05</v>
+        <v>3.2509676711694e-05</v>
       </c>
       <c r="L100" t="n">
-        <v>353</v>
+        <v>282</v>
       </c>
       <c r="M100" t="inlineStr"/>
       <c r="N100" t="n">
@@ -5761,16 +5777,16 @@
         </is>
       </c>
       <c r="C101" s="2" t="n">
-        <v>44572</v>
+        <v>44643</v>
       </c>
       <c r="D101" t="n">
-        <v>99.574666666667</v>
+        <v>99.094555555556</v>
       </c>
       <c r="E101" t="n">
-        <v>99.579555555556</v>
+        <v>99.141388888889</v>
       </c>
       <c r="F101" t="n">
-        <v>99.57711111111099</v>
+        <v>99.11797222222199</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5786,13 +5802,13 @@
         <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>-3.7169699623379e-05</v>
+        <v>0.00030836968591415</v>
       </c>
       <c r="K101" t="n">
-        <v>1.2039363434221e-05</v>
+        <v>3.1528137661719e-05</v>
       </c>
       <c r="L101" t="n">
-        <v>352</v>
+        <v>281</v>
       </c>
       <c r="M101" t="inlineStr"/>
       <c r="N101" t="n">
@@ -5814,16 +5830,16 @@
         </is>
       </c>
       <c r="C102" s="2" t="n">
-        <v>44573</v>
+        <v>44644</v>
       </c>
       <c r="D102" t="n">
-        <v>99.56125</v>
+        <v>99.18333333333401</v>
       </c>
       <c r="E102" t="n">
-        <v>99.571</v>
+        <v>99.19499999999999</v>
       </c>
       <c r="F102" t="n">
-        <v>99.566125</v>
+        <v>99.18916666666699</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5839,13 +5855,13 @@
         <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>-0.00011032767458854</v>
+        <v>0.0007182798724415701</v>
       </c>
       <c r="K102" t="n">
-        <v>1.2388004814757e-05</v>
+        <v>2.9076373750104e-05</v>
       </c>
       <c r="L102" t="n">
-        <v>351</v>
+        <v>280</v>
       </c>
       <c r="M102" t="inlineStr"/>
       <c r="N102" t="n">
@@ -5867,16 +5883,16 @@
         </is>
       </c>
       <c r="C103" s="2" t="n">
-        <v>44574</v>
+        <v>44645</v>
       </c>
       <c r="D103" t="n">
-        <v>99.567361111111</v>
+        <v>99.06224999999999</v>
       </c>
       <c r="E103" t="n">
-        <v>99.577083333334</v>
+        <v>99.06999999999999</v>
       </c>
       <c r="F103" t="n">
-        <v>99.572222222222</v>
+        <v>99.066125</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -5892,13 +5908,13 @@
         <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>6.1237918239997e-05</v>
+        <v>-0.001240474850244</v>
       </c>
       <c r="K103" t="n">
-        <v>1.2248438990585e-05</v>
+        <v>3.3629496509191e-05</v>
       </c>
       <c r="L103" t="n">
-        <v>350</v>
+        <v>279</v>
       </c>
       <c r="M103" t="inlineStr"/>
       <c r="N103" t="n">
@@ -5920,16 +5936,16 @@
         </is>
       </c>
       <c r="C104" s="2" t="n">
-        <v>44575</v>
+        <v>44648</v>
       </c>
       <c r="D104" t="n">
-        <v>99.515277777778</v>
+        <v>98.988</v>
       </c>
       <c r="E104" t="n">
-        <v>99.539513888889</v>
+        <v>99.041666666667</v>
       </c>
       <c r="F104" t="n">
-        <v>99.527395833334</v>
+        <v>99.014833333334</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -5945,13 +5961,13 @@
         <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>-0.0004501897003848401</v>
+        <v>-0.00051775182148958</v>
       </c>
       <c r="K104" t="n">
-        <v>1.3573767085663e-05</v>
+        <v>3.5871432707646e-05</v>
       </c>
       <c r="L104" t="n">
-        <v>349</v>
+        <v>276</v>
       </c>
       <c r="M104" t="inlineStr"/>
       <c r="N104" t="n">
@@ -5973,16 +5989,16 @@
         </is>
       </c>
       <c r="C105" s="2" t="n">
-        <v>44579</v>
+        <v>44649</v>
       </c>
       <c r="D105" t="n">
-        <v>99.4825</v>
+        <v>99.01840277777799</v>
       </c>
       <c r="E105" t="n">
-        <v>99.48729166666701</v>
+        <v>99.083333333334</v>
       </c>
       <c r="F105" t="n">
-        <v>99.484895833333</v>
+        <v>99.05086805555599</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5998,13 +6014,13 @@
         <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>-0.00042701810535847</v>
+        <v>0.00036393256453708</v>
       </c>
       <c r="K105" t="n">
-        <v>1.4969142076664e-05</v>
+        <v>3.467872389151301e-05</v>
       </c>
       <c r="L105" t="n">
-        <v>345</v>
+        <v>275</v>
       </c>
       <c r="M105" t="inlineStr"/>
       <c r="N105" t="n">
@@ -6026,16 +6042,16 @@
         </is>
       </c>
       <c r="C106" s="2" t="n">
-        <v>44580</v>
+        <v>44650</v>
       </c>
       <c r="D106" t="n">
-        <v>99.488777777778</v>
+        <v>99.079055555556</v>
       </c>
       <c r="E106" t="n">
-        <v>99.498333333334</v>
+        <v>99.086666666667</v>
       </c>
       <c r="F106" t="n">
-        <v>99.493555555556</v>
+        <v>99.082861111111</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -6051,13 +6067,13 @@
         <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>8.704559772303401e-05</v>
+        <v>0.00032299621581926</v>
       </c>
       <c r="K106" t="n">
-        <v>1.4759628508646e-05</v>
+        <v>3.3626660607281e-05</v>
       </c>
       <c r="L106" t="n">
-        <v>344</v>
+        <v>274</v>
       </c>
       <c r="M106" t="inlineStr"/>
       <c r="N106" t="n">
@@ -6079,16 +6095,16 @@
         </is>
       </c>
       <c r="C107" s="2" t="n">
-        <v>44581</v>
+        <v>44651</v>
       </c>
       <c r="D107" t="n">
-        <v>99.480736111111</v>
+        <v>99.082416666667</v>
       </c>
       <c r="E107" t="n">
-        <v>99.49502777777799</v>
+        <v>99.09</v>
       </c>
       <c r="F107" t="n">
-        <v>99.48788194444499</v>
+        <v>99.086208333334</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -6104,13 +6120,13 @@
         <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>-5.702491060293101e-05</v>
+        <v>3.378205054529e-05</v>
       </c>
       <c r="K107" t="n">
-        <v>1.4968917619706e-05</v>
+        <v>3.3626093503481e-05</v>
       </c>
       <c r="L107" t="n">
-        <v>343</v>
+        <v>273</v>
       </c>
       <c r="M107" t="inlineStr"/>
       <c r="N107" t="n">
@@ -6132,16 +6148,16 @@
         </is>
       </c>
       <c r="C108" s="2" t="n">
-        <v>44582</v>
+        <v>44652</v>
       </c>
       <c r="D108" t="n">
-        <v>99.47275</v>
+        <v>99.051777777778</v>
       </c>
       <c r="E108" t="n">
-        <v>99.48699999999999</v>
+        <v>99.059333333334</v>
       </c>
       <c r="F108" t="n">
-        <v>99.47987499999999</v>
+        <v>99.055555555556</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -6157,13 +6173,13 @@
         <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>-8.048160527640801e-05</v>
+        <v>-0.00030935463464983</v>
       </c>
       <c r="K108" t="n">
-        <v>1.5248022186122e-05</v>
+        <v>3.4887228018808e-05</v>
       </c>
       <c r="L108" t="n">
-        <v>342</v>
+        <v>272</v>
       </c>
       <c r="M108" t="inlineStr"/>
       <c r="N108" t="n">
@@ -6185,16 +6201,16 @@
         </is>
       </c>
       <c r="C109" s="2" t="n">
-        <v>44585</v>
+        <v>44655</v>
       </c>
       <c r="D109" t="n">
-        <v>99.47737499999999</v>
+        <v>99.01366666666699</v>
       </c>
       <c r="E109" t="n">
-        <v>99.486791666667</v>
+        <v>99.021138888889</v>
       </c>
       <c r="F109" t="n">
-        <v>99.48208333333299</v>
+        <v>99.017402777778</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -6210,13 +6226,13 @@
         <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>2.2198794814842e-05</v>
+        <v>-0.00038516545148615</v>
       </c>
       <c r="K109" t="n">
-        <v>1.5317477991824e-05</v>
+        <v>3.6708422557125e-05</v>
       </c>
       <c r="L109" t="n">
-        <v>339</v>
+        <v>269</v>
       </c>
       <c r="M109" t="inlineStr"/>
       <c r="N109" t="n">
@@ -6238,16 +6254,16 @@
         </is>
       </c>
       <c r="C110" s="2" t="n">
-        <v>44586</v>
+        <v>44656</v>
       </c>
       <c r="D110" t="n">
-        <v>99.446055555556</v>
+        <v>98.991277777778</v>
       </c>
       <c r="E110" t="n">
-        <v>99.45544444444499</v>
+        <v>98.998722222222</v>
       </c>
       <c r="F110" t="n">
-        <v>99.45075</v>
+        <v>98.995</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -6263,13 +6279,13 @@
         <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>-0.00031496458742565</v>
+        <v>-0.00022625091296378</v>
       </c>
       <c r="K110" t="n">
-        <v>1.6294790646205e-05</v>
+        <v>3.7689709624737e-05</v>
       </c>
       <c r="L110" t="n">
-        <v>338</v>
+        <v>268</v>
       </c>
       <c r="M110" t="inlineStr"/>
       <c r="N110" t="n">
@@ -6291,16 +6307,16 @@
         </is>
       </c>
       <c r="C111" s="2" t="n">
-        <v>44587</v>
+        <v>44657</v>
       </c>
       <c r="D111" t="n">
-        <v>99.382166666667</v>
+        <v>98.946833333334</v>
       </c>
       <c r="E111" t="n">
-        <v>99.39152777777799</v>
+        <v>98.95425</v>
       </c>
       <c r="F111" t="n">
-        <v>99.386847222222</v>
+        <v>98.95054166666699</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -6316,13 +6332,13 @@
         <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>-0.0006425570222222501</v>
+        <v>-0.00044909675572837</v>
       </c>
       <c r="K111" t="n">
-        <v>1.8250453379461e-05</v>
+        <v>3.9513257712766e-05</v>
       </c>
       <c r="L111" t="n">
-        <v>337</v>
+        <v>267</v>
       </c>
       <c r="M111" t="inlineStr"/>
       <c r="N111" t="n">
@@ -6344,16 +6360,16 @@
         </is>
       </c>
       <c r="C112" s="2" t="n">
-        <v>44669</v>
+        <v>44658</v>
       </c>
       <c r="D112" t="n">
-        <v>98.97645833333399</v>
+        <v>98.995111111111</v>
       </c>
       <c r="E112" t="n">
-        <v>99.033125</v>
+        <v>99.0025</v>
       </c>
       <c r="F112" t="n">
-        <v>99.004791666667</v>
+        <v>98.998805555556</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -6369,13 +6385,13 @@
         <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>-0.00016929534983409</v>
+        <v>0.00048775770274673</v>
       </c>
       <c r="K112" t="n">
-        <v>3.9223279809316e-05</v>
+        <v>3.7828575269488e-05</v>
       </c>
       <c r="L112" t="n">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="M112" t="inlineStr"/>
       <c r="N112" t="n">
@@ -6397,16 +6413,16 @@
         </is>
       </c>
       <c r="C113" s="2" t="n">
-        <v>44670</v>
+        <v>44659</v>
       </c>
       <c r="D113" t="n">
-        <v>98.998111111111</v>
+        <v>98.98416666666699</v>
       </c>
       <c r="E113" t="n">
-        <v>99.01222222222199</v>
+        <v>98.991527777778</v>
       </c>
       <c r="F113" t="n">
-        <v>99.00516666666699</v>
+        <v>98.987847222222</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -6422,13 +6438,13 @@
         <v>0</v>
       </c>
       <c r="J113" t="n">
-        <v>3.7876954609487e-06</v>
+        <v>-0.00011069157119449</v>
       </c>
       <c r="K113" t="n">
-        <v>3.9362790012158e-05</v>
+        <v>3.8389051772236e-05</v>
       </c>
       <c r="L113" t="n">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="M113" t="inlineStr"/>
       <c r="N113" t="n">
@@ -6450,16 +6466,16 @@
         </is>
       </c>
       <c r="C114" s="2" t="n">
-        <v>44671</v>
+        <v>44662</v>
       </c>
       <c r="D114" t="n">
-        <v>98.95286111111099</v>
+        <v>98.98111111111099</v>
       </c>
       <c r="E114" t="n">
-        <v>99.030166666667</v>
+        <v>98.99202777777799</v>
       </c>
       <c r="F114" t="n">
-        <v>98.991513888889</v>
+        <v>98.986569444445</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -6475,13 +6491,13 @@
         <v>0</v>
       </c>
       <c r="J114" t="n">
-        <v>-0.00013789964945708</v>
+        <v>-1.2908430818963e-05</v>
       </c>
       <c r="K114" t="n">
-        <v>4.0063469650498e-05</v>
+        <v>3.8877890205251e-05</v>
       </c>
       <c r="L114" t="n">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="M114" t="inlineStr"/>
       <c r="N114" t="n">
@@ -6503,16 +6519,16 @@
         </is>
       </c>
       <c r="C115" s="2" t="n">
-        <v>44672</v>
+        <v>44663</v>
       </c>
       <c r="D115" t="n">
-        <v>98.964</v>
+        <v>98.985</v>
       </c>
       <c r="E115" t="n">
-        <v>98.971</v>
+        <v>98.99225</v>
       </c>
       <c r="F115" t="n">
-        <v>98.9675</v>
+        <v>98.988625</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -6528,13 +6544,13 @@
         <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>-0.00024258532823177</v>
+        <v>2.0766004591275e-05</v>
       </c>
       <c r="K115" t="n">
-        <v>4.1185208644396e-05</v>
+        <v>3.89472852291e-05</v>
       </c>
       <c r="L115" t="n">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="M115" t="inlineStr"/>
       <c r="N115" t="n">
@@ -6556,16 +6572,16 @@
         </is>
       </c>
       <c r="C116" s="2" t="n">
-        <v>44673</v>
+        <v>44664</v>
       </c>
       <c r="D116" t="n">
-        <v>98.947194444445</v>
+        <v>99.07555555555599</v>
       </c>
       <c r="E116" t="n">
-        <v>98.95416666666699</v>
+        <v>99.08277777777799</v>
       </c>
       <c r="F116" t="n">
-        <v>98.950680555556</v>
+        <v>99.07916666666699</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -6581,13 +6597,13 @@
         <v>0</v>
       </c>
       <c r="J116" t="n">
-        <v>-0.00016994916962083</v>
+        <v>0.0009146673839207901</v>
       </c>
       <c r="K116" t="n">
-        <v>4.202643900798901e-05</v>
+        <v>3.5580738900713e-05</v>
       </c>
       <c r="L116" t="n">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
@@ -6609,16 +6625,16 @@
         </is>
       </c>
       <c r="C117" s="2" t="n">
-        <v>44676</v>
+        <v>44665</v>
       </c>
       <c r="D117" t="n">
-        <v>98.966666666667</v>
+        <v>99.01795833333399</v>
       </c>
       <c r="E117" t="n">
-        <v>98.973555555556</v>
+        <v>99.025152777778</v>
       </c>
       <c r="F117" t="n">
-        <v>98.970111111111</v>
+        <v>99.02155555555599</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -6634,13 +6650,13 @@
         <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>0.00019636606283528</v>
+        <v>-0.0005814654386924001</v>
       </c>
       <c r="K117" t="n">
-        <v>4.1743102441378e-05</v>
+        <v>3.7963809534619e-05</v>
       </c>
       <c r="L117" t="n">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
@@ -6654,24 +6670,24 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>207818</v>
+        <v>207816</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>20221229.400000</t>
+          <t>20220630.400000</t>
         </is>
       </c>
       <c r="C118" s="2" t="n">
-        <v>44677</v>
+        <v>44557</v>
       </c>
       <c r="D118" t="n">
-        <v>98.97769444444499</v>
+        <v>99.892083333334</v>
       </c>
       <c r="E118" t="n">
-        <v>98.984555555556</v>
+        <v>99.89465277777799</v>
       </c>
       <c r="F118" t="n">
-        <v>98.98112499999999</v>
+        <v>99.893368055556</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6686,19 +6702,15 @@
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>0.00011128500074647</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="n">
-        <v>4.1461581362071e-05</v>
+        <v>5.7669641486217e-06</v>
       </c>
       <c r="L118" t="n">
-        <v>247</v>
+        <v>185</v>
       </c>
       <c r="M118" t="inlineStr"/>
-      <c r="N118" t="n">
-        <v>38798</v>
-      </c>
+      <c r="N118" t="inlineStr"/>
       <c r="O118" t="n">
         <v>0</v>
       </c>
@@ -6707,24 +6719,24 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>207818</v>
+        <v>207816</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>20221229.400000</t>
+          <t>20220630.400000</t>
         </is>
       </c>
       <c r="C119" s="2" t="n">
-        <v>44678</v>
+        <v>44558</v>
       </c>
       <c r="D119" t="n">
-        <v>98.988666666667</v>
+        <v>99.897777777778</v>
       </c>
       <c r="E119" t="n">
-        <v>98.99549999999999</v>
+        <v>99.902888888889</v>
       </c>
       <c r="F119" t="n">
-        <v>98.99208333333399</v>
+        <v>99.900333333334</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6740,18 +6752,16 @@
         <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>0.00011071134353488</v>
+        <v>6.9727129171459e-05</v>
       </c>
       <c r="K119" t="n">
-        <v>4.1180103174574e-05</v>
+        <v>5.4193677671022e-06</v>
       </c>
       <c r="L119" t="n">
-        <v>246</v>
+        <v>184</v>
       </c>
       <c r="M119" t="inlineStr"/>
-      <c r="N119" t="n">
-        <v>38798</v>
-      </c>
+      <c r="N119" t="inlineStr"/>
       <c r="O119" t="n">
         <v>0</v>
       </c>
@@ -6760,24 +6770,24 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>207818</v>
+        <v>207816</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>20221229.400000</t>
+          <t>20220630.400000</t>
         </is>
       </c>
       <c r="C120" s="2" t="n">
-        <v>44679</v>
+        <v>44559</v>
       </c>
       <c r="D120" t="n">
-        <v>99.00638888888899</v>
+        <v>99.900875</v>
       </c>
       <c r="E120" t="n">
-        <v>99.01319444444499</v>
+        <v>99.905958333334</v>
       </c>
       <c r="F120" t="n">
-        <v>99.009791666667</v>
+        <v>99.903416666667</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -6793,18 +6803,16 @@
         <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>0.00017888635875764</v>
+        <v>3.0864094547435e-05</v>
       </c>
       <c r="K120" t="n">
-        <v>4.0618102124263e-05</v>
+        <v>5.2803281469167e-06</v>
       </c>
       <c r="L120" t="n">
-        <v>245</v>
+        <v>183</v>
       </c>
       <c r="M120" t="inlineStr"/>
-      <c r="N120" t="n">
-        <v>38798</v>
-      </c>
+      <c r="N120" t="inlineStr"/>
       <c r="O120" t="n">
         <v>0</v>
       </c>
@@ -6813,24 +6821,24 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>207818</v>
+        <v>207816</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>20221229.400000</t>
+          <t>20220630.400000</t>
         </is>
       </c>
       <c r="C121" s="2" t="n">
-        <v>44680</v>
+        <v>44560</v>
       </c>
       <c r="D121" t="n">
-        <v>98.996888888889</v>
+        <v>99.90647222222199</v>
       </c>
       <c r="E121" t="n">
-        <v>99.003666666667</v>
+        <v>99.91152777777801</v>
       </c>
       <c r="F121" t="n">
-        <v>99.000277777778</v>
+        <v>99.90899999999999</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -6846,18 +6854,16 @@
         <v>0</v>
       </c>
       <c r="J121" t="n">
-        <v>-9.6090383877702e-05</v>
+        <v>5.5887311161396e-05</v>
       </c>
       <c r="K121" t="n">
-        <v>4.117840172663401e-05</v>
+        <v>5.0022763811096e-06</v>
       </c>
       <c r="L121" t="n">
-        <v>244</v>
+        <v>182</v>
       </c>
       <c r="M121" t="inlineStr"/>
-      <c r="N121" t="n">
-        <v>38798</v>
-      </c>
+      <c r="N121" t="inlineStr"/>
       <c r="O121" t="n">
         <v>0</v>
       </c>
@@ -6874,16 +6880,16 @@
         </is>
       </c>
       <c r="C122" s="2" t="n">
-        <v>44596</v>
+        <v>44561</v>
       </c>
       <c r="D122" t="n">
-        <v>99.837777777778</v>
+        <v>99.904472222222</v>
       </c>
       <c r="E122" t="n">
-        <v>99.854</v>
+        <v>99.90949999999999</v>
       </c>
       <c r="F122" t="n">
-        <v>99.84588888888899</v>
+        <v>99.906986111111</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -6899,13 +6905,13 @@
         <v>0</v>
       </c>
       <c r="J122" t="n">
-        <v>-0.00025518934841056</v>
+        <v>-2.0157231969947e-05</v>
       </c>
       <c r="K122" t="n">
-        <v>1.0563697563767e-05</v>
+        <v>5.141280312109e-06</v>
       </c>
       <c r="L122" t="n">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="M122" t="inlineStr"/>
       <c r="N122" t="n">
@@ -6927,16 +6933,16 @@
         </is>
       </c>
       <c r="C123" s="2" t="n">
-        <v>44599</v>
+        <v>44564</v>
       </c>
       <c r="D123" t="n">
-        <v>99.851041666667</v>
+        <v>99.896166666667</v>
       </c>
       <c r="E123" t="n">
-        <v>99.855013888889</v>
+        <v>99.90111111111099</v>
       </c>
       <c r="F123" t="n">
-        <v>99.853027777778</v>
+        <v>99.898638888889</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -6952,13 +6958,13 @@
         <v>0</v>
       </c>
       <c r="J123" t="n">
-        <v>7.149907691088501e-05</v>
+        <v>-8.3549935266225e-05</v>
       </c>
       <c r="K123" t="n">
-        <v>1.0285337925428e-05</v>
+        <v>5.6973323721801e-06</v>
       </c>
       <c r="L123" t="n">
-        <v>143</v>
+        <v>178</v>
       </c>
       <c r="M123" t="inlineStr"/>
       <c r="N123" t="n">
@@ -6980,16 +6986,16 @@
         </is>
       </c>
       <c r="C124" s="2" t="n">
-        <v>44600</v>
+        <v>44565</v>
       </c>
       <c r="D124" t="n">
-        <v>99.850111111111</v>
+        <v>99.90412499999999</v>
       </c>
       <c r="E124" t="n">
-        <v>99.854055555556</v>
+        <v>99.90904166666699</v>
       </c>
       <c r="F124" t="n">
-        <v>99.85208333333399</v>
+        <v>99.906583333334</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -7005,13 +7011,13 @@
         <v>0</v>
       </c>
       <c r="J124" t="n">
-        <v>-9.458345585198399e-06</v>
+        <v>7.952505192076e-05</v>
       </c>
       <c r="K124" t="n">
-        <v>1.0424378265154e-05</v>
+        <v>5.280244476139299e-06</v>
       </c>
       <c r="L124" t="n">
-        <v>142</v>
+        <v>177</v>
       </c>
       <c r="M124" t="inlineStr"/>
       <c r="N124" t="n">
@@ -7033,16 +7039,16 @@
         </is>
       </c>
       <c r="C125" s="2" t="n">
-        <v>44601</v>
+        <v>44566</v>
       </c>
       <c r="D125" t="n">
-        <v>99.84725</v>
+        <v>99.904666666667</v>
       </c>
       <c r="E125" t="n">
-        <v>99.851166666667</v>
+        <v>99.909555555556</v>
       </c>
       <c r="F125" t="n">
-        <v>99.849208333334</v>
+        <v>99.90711111111099</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -7058,13 +7064,13 @@
         <v>0</v>
       </c>
       <c r="J125" t="n">
-        <v>-2.8792589037863e-05</v>
+        <v>5.2827127118263e-06</v>
       </c>
       <c r="K125" t="n">
-        <v>1.0702515724852e-05</v>
+        <v>5.2802305313542e-06</v>
       </c>
       <c r="L125" t="n">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="M125" t="inlineStr"/>
       <c r="N125" t="n">
@@ -7086,16 +7092,16 @@
         </is>
       </c>
       <c r="C126" s="2" t="n">
-        <v>44602</v>
+        <v>44567</v>
       </c>
       <c r="D126" t="n">
-        <v>99.786111111111</v>
+        <v>99.895486111111</v>
       </c>
       <c r="E126" t="n">
-        <v>99.78999999999999</v>
+        <v>99.897916666667</v>
       </c>
       <c r="F126" t="n">
-        <v>99.788055555556</v>
+        <v>99.896701388889</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -7111,13 +7117,13 @@
         <v>0</v>
       </c>
       <c r="J126" t="n">
-        <v>-0.0006124513033056201</v>
+        <v>-0.00010419400687743</v>
       </c>
       <c r="K126" t="n">
-        <v>1.5154954610147e-05</v>
+        <v>5.905828622676e-06</v>
       </c>
       <c r="L126" t="n">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="M126" t="inlineStr"/>
       <c r="N126" t="n">
@@ -7139,16 +7145,16 @@
         </is>
       </c>
       <c r="C127" s="2" t="n">
-        <v>44603</v>
+        <v>44568</v>
       </c>
       <c r="D127" t="n">
-        <v>99.801152777778</v>
+        <v>99.896083333334</v>
       </c>
       <c r="E127" t="n">
-        <v>99.80501388888899</v>
+        <v>99.900916666667</v>
       </c>
       <c r="F127" t="n">
-        <v>99.803083333334</v>
+        <v>99.8985</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -7164,13 +7170,13 @@
         <v>0</v>
       </c>
       <c r="J127" t="n">
-        <v>0.00015059695966728</v>
+        <v>1.8004709726227e-05</v>
       </c>
       <c r="K127" t="n">
-        <v>1.4180633268613e-05</v>
+        <v>5.8362957547418e-06</v>
       </c>
       <c r="L127" t="n">
-        <v>139</v>
+        <v>174</v>
       </c>
       <c r="M127" t="inlineStr"/>
       <c r="N127" t="n">
@@ -7192,16 +7198,16 @@
         </is>
       </c>
       <c r="C128" s="2" t="n">
-        <v>44606</v>
+        <v>44571</v>
       </c>
       <c r="D128" t="n">
-        <v>99.799777777778</v>
+        <v>99.89075</v>
       </c>
       <c r="E128" t="n">
-        <v>99.803555555556</v>
+        <v>99.8955</v>
       </c>
       <c r="F128" t="n">
-        <v>99.801666666667</v>
+        <v>99.893125</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -7217,13 +7223,13 @@
         <v>0</v>
       </c>
       <c r="J128" t="n">
-        <v>-1.4194618235613e-05</v>
+        <v>-5.380461168093101e-05</v>
       </c>
       <c r="K128" t="n">
-        <v>1.4597814289097e-05</v>
+        <v>6.2533422252982e-06</v>
       </c>
       <c r="L128" t="n">
-        <v>136</v>
+        <v>171</v>
       </c>
       <c r="M128" t="inlineStr"/>
       <c r="N128" t="n">
@@ -7245,16 +7251,16 @@
         </is>
       </c>
       <c r="C129" s="2" t="n">
-        <v>44607</v>
+        <v>44572</v>
       </c>
       <c r="D129" t="n">
-        <v>99.82375</v>
+        <v>99.889027777778</v>
       </c>
       <c r="E129" t="n">
-        <v>99.8275</v>
+        <v>99.896111111111</v>
       </c>
       <c r="F129" t="n">
-        <v>99.825625</v>
+        <v>99.892569444445</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -7270,13 +7276,13 @@
         <v>0</v>
       </c>
       <c r="J129" t="n">
-        <v>0.00024005945124493</v>
+        <v>-5.561499407973199e-06</v>
       </c>
       <c r="K129" t="n">
-        <v>1.292794149431e-05</v>
+        <v>6.3228413847005e-06</v>
       </c>
       <c r="L129" t="n">
-        <v>135</v>
+        <v>170</v>
       </c>
       <c r="M129" t="inlineStr"/>
       <c r="N129" t="n">
@@ -7298,16 +7304,16 @@
         </is>
       </c>
       <c r="C130" s="2" t="n">
-        <v>44608</v>
+        <v>44573</v>
       </c>
       <c r="D130" t="n">
-        <v>99.826916666667</v>
+        <v>99.892027777778</v>
       </c>
       <c r="E130" t="n">
-        <v>99.830638888889</v>
+        <v>99.894375</v>
       </c>
       <c r="F130" t="n">
-        <v>99.828777777778</v>
+        <v>99.893201388889</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
@@ -7323,13 +7329,13 @@
         <v>0</v>
       </c>
       <c r="J130" t="n">
-        <v>3.1582850373045e-05</v>
+        <v>6.3262407599968e-06</v>
       </c>
       <c r="K130" t="n">
-        <v>1.2788729478257e-05</v>
+        <v>6.3228213884604e-06</v>
       </c>
       <c r="L130" t="n">
-        <v>134</v>
+        <v>169</v>
       </c>
       <c r="M130" t="inlineStr"/>
       <c r="N130" t="n">
@@ -7351,16 +7357,16 @@
         </is>
       </c>
       <c r="C131" s="2" t="n">
-        <v>44609</v>
+        <v>44574</v>
       </c>
       <c r="D131" t="n">
-        <v>99.826361111111</v>
+        <v>99.88799999999999</v>
       </c>
       <c r="E131" t="n">
-        <v>99.830055555556</v>
+        <v>99.892666666667</v>
       </c>
       <c r="F131" t="n">
-        <v>99.828208333334</v>
+        <v>99.890333333334</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
@@ -7376,13 +7382,13 @@
         <v>0</v>
       </c>
       <c r="J131" t="n">
-        <v>-5.7042113218117e-06</v>
+        <v>-2.871121873845e-05</v>
       </c>
       <c r="K131" t="n">
-        <v>1.292777426825e-05</v>
+        <v>6.5313597950189e-06</v>
       </c>
       <c r="L131" t="n">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="M131" t="inlineStr"/>
       <c r="N131" t="n">
@@ -7404,16 +7410,16 @@
         </is>
       </c>
       <c r="C132" s="2" t="n">
-        <v>44610</v>
+        <v>44575</v>
       </c>
       <c r="D132" t="n">
-        <v>99.82033333333399</v>
+        <v>99.879388888889</v>
       </c>
       <c r="E132" t="n">
-        <v>99.824</v>
+        <v>99.88866666666699</v>
       </c>
       <c r="F132" t="n">
-        <v>99.822166666667</v>
+        <v>99.884027777778</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -7429,13 +7435,13 @@
         <v>0</v>
       </c>
       <c r="J132" t="n">
-        <v>-6.052063607595501e-05</v>
+        <v>-6.312478240022401e-05</v>
       </c>
       <c r="K132" t="n">
-        <v>1.3484215493946e-05</v>
+        <v>6.9484743737504e-06</v>
       </c>
       <c r="L132" t="n">
-        <v>132</v>
+        <v>167</v>
       </c>
       <c r="M132" t="inlineStr"/>
       <c r="N132" t="n">
@@ -7457,16 +7463,16 @@
         </is>
       </c>
       <c r="C133" s="2" t="n">
-        <v>44614</v>
+        <v>44579</v>
       </c>
       <c r="D133" t="n">
-        <v>99.816888888889</v>
+        <v>99.868694444445</v>
       </c>
       <c r="E133" t="n">
-        <v>99.820444444445</v>
+        <v>99.870958333334</v>
       </c>
       <c r="F133" t="n">
-        <v>99.818666666667</v>
+        <v>99.869826388889</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -7482,13 +7488,13 @@
         <v>0</v>
       </c>
       <c r="J133" t="n">
-        <v>-3.5062352550293e-05</v>
+        <v>-0.00014217877677575</v>
       </c>
       <c r="K133" t="n">
-        <v>1.4179526659764e-05</v>
+        <v>7.991313530996299e-06</v>
       </c>
       <c r="L133" t="n">
-        <v>128</v>
+        <v>163</v>
       </c>
       <c r="M133" t="inlineStr"/>
       <c r="N133" t="n">
@@ -7510,16 +7516,16 @@
         </is>
       </c>
       <c r="C134" s="2" t="n">
-        <v>44615</v>
+        <v>44580</v>
       </c>
       <c r="D134" t="n">
-        <v>99.82537499999999</v>
+        <v>99.8695</v>
       </c>
       <c r="E134" t="n">
-        <v>99.828902777778</v>
+        <v>99.874</v>
       </c>
       <c r="F134" t="n">
-        <v>99.827138888889</v>
+        <v>99.87174999999999</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -7535,13 +7541,13 @@
         <v>0</v>
       </c>
       <c r="J134" t="n">
-        <v>8.487613093966001e-05</v>
+        <v>1.926118408986e-05</v>
       </c>
       <c r="K134" t="n">
-        <v>1.3622888844766e-05</v>
+        <v>7.9217475738079e-06</v>
       </c>
       <c r="L134" t="n">
-        <v>127</v>
+        <v>162</v>
       </c>
       <c r="M134" t="inlineStr"/>
       <c r="N134" t="n">
@@ -7563,16 +7569,16 @@
         </is>
       </c>
       <c r="C135" s="2" t="n">
-        <v>44616</v>
+        <v>44581</v>
       </c>
       <c r="D135" t="n">
-        <v>99.846</v>
+        <v>99.872541666667</v>
       </c>
       <c r="E135" t="n">
-        <v>99.84949999999999</v>
+        <v>99.877013888889</v>
       </c>
       <c r="F135" t="n">
-        <v>99.84775</v>
+        <v>99.87477777777799</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -7588,13 +7594,13 @@
         <v>0</v>
       </c>
       <c r="J135" t="n">
-        <v>0.00020646801401413</v>
+        <v>3.0316658892895e-05</v>
       </c>
       <c r="K135" t="n">
-        <v>1.2092541117922e-05</v>
+        <v>7.782651600027899e-06</v>
       </c>
       <c r="L135" t="n">
-        <v>126</v>
+        <v>161</v>
       </c>
       <c r="M135" t="inlineStr"/>
       <c r="N135" t="n">
@@ -7616,16 +7622,16 @@
         </is>
       </c>
       <c r="C136" s="2" t="n">
-        <v>44617</v>
+        <v>44582</v>
       </c>
       <c r="D136" t="n">
-        <v>99.836805555556</v>
+        <v>99.87111111111099</v>
       </c>
       <c r="E136" t="n">
-        <v>99.840277777778</v>
+        <v>99.87555555555601</v>
       </c>
       <c r="F136" t="n">
-        <v>99.838541666667</v>
+        <v>99.873333333334</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -7641,13 +7647,13 @@
         <v>0</v>
       </c>
       <c r="J136" t="n">
-        <v>-9.2223743983652e-05</v>
+        <v>-1.446255477691e-05</v>
       </c>
       <c r="K136" t="n">
-        <v>1.2927105421701e-05</v>
+        <v>7.921684793533e-06</v>
       </c>
       <c r="L136" t="n">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="M136" t="inlineStr"/>
       <c r="N136" t="n">
@@ -7669,16 +7675,16 @@
         </is>
       </c>
       <c r="C137" s="2" t="n">
-        <v>44620</v>
+        <v>44585</v>
       </c>
       <c r="D137" t="n">
-        <v>99.850888888889</v>
+        <v>99.875708333334</v>
       </c>
       <c r="E137" t="n">
-        <v>99.85427777777799</v>
+        <v>99.880069444445</v>
       </c>
       <c r="F137" t="n">
-        <v>99.852583333334</v>
+        <v>99.877888888889</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -7694,13 +7700,13 @@
         <v>0</v>
       </c>
       <c r="J137" t="n">
-        <v>0.00014064374771787</v>
+        <v>4.5613332443283e-05</v>
       </c>
       <c r="K137" t="n">
-        <v>1.2092248519667e-05</v>
+        <v>7.7825304126013e-06</v>
       </c>
       <c r="L137" t="n">
-        <v>122</v>
+        <v>157</v>
       </c>
       <c r="M137" t="inlineStr"/>
       <c r="N137" t="n">
@@ -7722,16 +7728,16 @@
         </is>
       </c>
       <c r="C138" s="2" t="n">
-        <v>44621</v>
+        <v>44586</v>
       </c>
       <c r="D138" t="n">
-        <v>99.87731944444499</v>
+        <v>99.87649999999999</v>
       </c>
       <c r="E138" t="n">
-        <v>99.880680555556</v>
+        <v>99.880833333333</v>
       </c>
       <c r="F138" t="n">
-        <v>99.879</v>
+        <v>99.878666666667</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -7747,13 +7753,13 @@
         <v>0</v>
       </c>
       <c r="J138" t="n">
-        <v>0.00026455666728687</v>
+        <v>7.7872869203015e-06</v>
       </c>
       <c r="K138" t="n">
-        <v>1.0006054884767e-05</v>
+        <v>7.782500116530601e-06</v>
       </c>
       <c r="L138" t="n">
-        <v>121</v>
+        <v>156</v>
       </c>
       <c r="M138" t="inlineStr"/>
       <c r="N138" t="n">
@@ -7775,16 +7781,16 @@
         </is>
       </c>
       <c r="C139" s="2" t="n">
-        <v>44622</v>
+        <v>44587</v>
       </c>
       <c r="D139" t="n">
-        <v>99.851666666667</v>
+        <v>99.87083333333401</v>
       </c>
       <c r="E139" t="n">
-        <v>99.855</v>
+        <v>99.875138888889</v>
       </c>
       <c r="F139" t="n">
-        <v>99.85333333333399</v>
+        <v>99.872986111111</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7800,13 +7806,13 @@
         <v>0</v>
       </c>
       <c r="J139" t="n">
-        <v>-0.00025697760957416</v>
+        <v>-5.687456335897001e-05</v>
       </c>
       <c r="K139" t="n">
-        <v>1.2231193958622e-05</v>
+        <v>8.199652896497101e-06</v>
       </c>
       <c r="L139" t="n">
-        <v>120</v>
+        <v>155</v>
       </c>
       <c r="M139" t="inlineStr"/>
       <c r="N139" t="n">
@@ -7828,16 +7834,16 @@
         </is>
       </c>
       <c r="C140" s="2" t="n">
-        <v>44623</v>
+        <v>44588</v>
       </c>
       <c r="D140" t="n">
-        <v>99.838027777778</v>
+        <v>99.858833333334</v>
       </c>
       <c r="E140" t="n">
-        <v>99.861166666667</v>
+        <v>99.863111111111</v>
       </c>
       <c r="F140" t="n">
-        <v>99.849597222222</v>
+        <v>99.860972222222</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7853,13 +7859,13 @@
         <v>0</v>
       </c>
       <c r="J140" t="n">
-        <v>-3.7415987893322e-05</v>
+        <v>-0.00012029167602479</v>
       </c>
       <c r="K140" t="n">
-        <v>1.2648403049778e-05</v>
+        <v>9.034059159777e-06</v>
       </c>
       <c r="L140" t="n">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="M140" t="inlineStr"/>
       <c r="N140" t="n">
@@ -7881,16 +7887,16 @@
         </is>
       </c>
       <c r="C141" s="2" t="n">
-        <v>44624</v>
+        <v>44589</v>
       </c>
       <c r="D141" t="n">
-        <v>99.850861111111</v>
+        <v>99.864</v>
       </c>
       <c r="E141" t="n">
-        <v>99.854138888889</v>
+        <v>99.86825</v>
       </c>
       <c r="F141" t="n">
-        <v>99.85249999999999</v>
+        <v>99.866125</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7906,13 +7912,13 @@
         <v>0</v>
       </c>
       <c r="J141" t="n">
-        <v>2.9071502124316e-05</v>
+        <v>5.159951543760601e-05</v>
       </c>
       <c r="K141" t="n">
-        <v>1.2509227825145e-05</v>
+        <v>8.7558622639042e-06</v>
       </c>
       <c r="L141" t="n">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="M141" t="inlineStr"/>
       <c r="N141" t="n">
@@ -7934,16 +7940,16 @@
         </is>
       </c>
       <c r="C142" s="2" t="n">
-        <v>44627</v>
+        <v>44592</v>
       </c>
       <c r="D142" t="n">
-        <v>99.854652777778</v>
+        <v>99.86041666666699</v>
       </c>
       <c r="E142" t="n">
-        <v>99.85784722222199</v>
+        <v>99.866666666667</v>
       </c>
       <c r="F142" t="n">
-        <v>99.85625</v>
+        <v>99.863541666667</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7959,13 +7965,13 @@
         <v>0</v>
       </c>
       <c r="J142" t="n">
-        <v>3.7555394206478e-05</v>
+        <v>-2.5867964070291e-05</v>
       </c>
       <c r="K142" t="n">
-        <v>1.250899299432e-05</v>
+        <v>9.103434833528499e-06</v>
       </c>
       <c r="L142" t="n">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="M142" t="inlineStr"/>
       <c r="N142" t="n">
@@ -7987,16 +7993,16 @@
         </is>
       </c>
       <c r="C143" s="2" t="n">
-        <v>44628</v>
+        <v>44593</v>
       </c>
       <c r="D143" t="n">
-        <v>99.86225</v>
+        <v>99.865486111111</v>
       </c>
       <c r="E143" t="n">
-        <v>99.865416666667</v>
+        <v>99.867555555556</v>
       </c>
       <c r="F143" t="n">
-        <v>99.863833333334</v>
+        <v>99.86652083333399</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -8012,13 +8018,13 @@
         <v>0</v>
       </c>
       <c r="J143" t="n">
-        <v>7.5942500678111e-05</v>
+        <v>2.9832375429027e-05</v>
       </c>
       <c r="K143" t="n">
-        <v>1.1952584010127e-05</v>
+        <v>8.9643174132666e-06</v>
       </c>
       <c r="L143" t="n">
-        <v>114</v>
+        <v>149</v>
       </c>
       <c r="M143" t="inlineStr"/>
       <c r="N143" t="n">
@@ -8040,16 +8046,16 @@
         </is>
       </c>
       <c r="C144" s="2" t="n">
-        <v>44629</v>
+        <v>44594</v>
       </c>
       <c r="D144" t="n">
-        <v>99.861888888889</v>
+        <v>99.862277777778</v>
       </c>
       <c r="E144" t="n">
-        <v>99.865027777778</v>
+        <v>99.88077777777799</v>
       </c>
       <c r="F144" t="n">
-        <v>99.86345833333399</v>
+        <v>99.871527777778</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -8065,13 +8071,13 @@
         <v>0</v>
       </c>
       <c r="J144" t="n">
-        <v>-3.7551132123489e-06</v>
+        <v>5.0136366047898e-05</v>
       </c>
       <c r="K144" t="n">
-        <v>1.209159024263e-05</v>
+        <v>8.686136387259699e-06</v>
       </c>
       <c r="L144" t="n">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="M144" t="inlineStr"/>
       <c r="N144" t="n">
@@ -8085,24 +8091,24 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>207816</v>
+        <v>207818</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>20220630.400000</t>
+          <t>20221229.400000</t>
         </is>
       </c>
       <c r="C145" s="2" t="n">
-        <v>44630</v>
+        <v>44669</v>
       </c>
       <c r="D145" t="n">
-        <v>99.86466666666699</v>
+        <v>98.97645833333399</v>
       </c>
       <c r="E145" t="n">
-        <v>99.867777777778</v>
+        <v>99.033125</v>
       </c>
       <c r="F145" t="n">
-        <v>99.86622222222199</v>
+        <v>99.004791666667</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -8118,17 +8124,17 @@
         <v>0</v>
       </c>
       <c r="J145" t="n">
-        <v>2.7676679087697e-05</v>
+        <v>-0.00016929534983409</v>
       </c>
       <c r="K145" t="n">
-        <v>1.1952441083231e-05</v>
+        <v>3.9223279809316e-05</v>
       </c>
       <c r="L145" t="n">
-        <v>112</v>
+        <v>255</v>
       </c>
       <c r="M145" t="inlineStr"/>
       <c r="N145" t="n">
-        <v>58198</v>
+        <v>38798</v>
       </c>
       <c r="O145" t="n">
         <v>0</v>
@@ -8138,24 +8144,24 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>207816</v>
+        <v>207818</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>20220630.400000</t>
+          <t>20221229.400000</t>
         </is>
       </c>
       <c r="C146" s="2" t="n">
-        <v>44631</v>
+        <v>44670</v>
       </c>
       <c r="D146" t="n">
-        <v>99.85662499999999</v>
+        <v>98.998111111111</v>
       </c>
       <c r="E146" t="n">
-        <v>99.859708333334</v>
+        <v>99.01222222222199</v>
       </c>
       <c r="F146" t="n">
-        <v>99.858166666667</v>
+        <v>99.00516666666699</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -8171,17 +8177,17 @@
         <v>0</v>
       </c>
       <c r="J146" t="n">
-        <v>-8.066346534705901e-05</v>
+        <v>3.7876954609487e-06</v>
       </c>
       <c r="K146" t="n">
-        <v>1.27868479292e-05</v>
+        <v>3.9362790012158e-05</v>
       </c>
       <c r="L146" t="n">
-        <v>111</v>
+        <v>254</v>
       </c>
       <c r="M146" t="inlineStr"/>
       <c r="N146" t="n">
-        <v>58198</v>
+        <v>38798</v>
       </c>
       <c r="O146" t="n">
         <v>0</v>
@@ -8191,24 +8197,24 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>207816</v>
+        <v>207818</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>20220630.400000</t>
+          <t>20221229.400000</t>
         </is>
       </c>
       <c r="C147" s="2" t="n">
-        <v>44634</v>
+        <v>44671</v>
       </c>
       <c r="D147" t="n">
-        <v>99.877</v>
+        <v>98.95286111111099</v>
       </c>
       <c r="E147" t="n">
-        <v>99.88</v>
+        <v>99.030166666667</v>
       </c>
       <c r="F147" t="n">
-        <v>99.8785</v>
+        <v>98.991513888889</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -8224,17 +8230,17 @@
         <v>0</v>
       </c>
       <c r="J147" t="n">
-        <v>0.00020362213739832</v>
+        <v>-0.00013789964945708</v>
       </c>
       <c r="K147" t="n">
-        <v>1.1256839915893e-05</v>
+        <v>4.0063469650498e-05</v>
       </c>
       <c r="L147" t="n">
-        <v>108</v>
+        <v>253</v>
       </c>
       <c r="M147" t="inlineStr"/>
       <c r="N147" t="n">
-        <v>58198</v>
+        <v>38798</v>
       </c>
       <c r="O147" t="n">
         <v>0</v>
@@ -8244,24 +8250,24 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>207816</v>
+        <v>207818</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>20220630.400000</t>
+          <t>20221229.400000</t>
         </is>
       </c>
       <c r="C148" s="2" t="n">
-        <v>44635</v>
+        <v>44672</v>
       </c>
       <c r="D148" t="n">
-        <v>99.852875</v>
+        <v>98.964</v>
       </c>
       <c r="E148" t="n">
-        <v>99.855847222222</v>
+        <v>98.971</v>
       </c>
       <c r="F148" t="n">
-        <v>99.854361111111</v>
+        <v>98.9675</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -8277,17 +8283,17 @@
         <v>0</v>
       </c>
       <c r="J148" t="n">
-        <v>-0.00024168253316683</v>
+        <v>-0.00024258532823177</v>
       </c>
       <c r="K148" t="n">
-        <v>1.3621032280497e-05</v>
+        <v>4.1185208644396e-05</v>
       </c>
       <c r="L148" t="n">
-        <v>107</v>
+        <v>252</v>
       </c>
       <c r="M148" t="inlineStr"/>
       <c r="N148" t="n">
-        <v>58198</v>
+        <v>38798</v>
       </c>
       <c r="O148" t="n">
         <v>0</v>
@@ -8297,24 +8303,24 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>207816</v>
+        <v>207818</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>20220630.400000</t>
+          <t>20221229.400000</t>
         </is>
       </c>
       <c r="C149" s="2" t="n">
-        <v>44636</v>
+        <v>44673</v>
       </c>
       <c r="D149" t="n">
-        <v>99.824805555556</v>
+        <v>98.947194444445</v>
       </c>
       <c r="E149" t="n">
-        <v>99.82774999999999</v>
+        <v>98.95416666666699</v>
       </c>
       <c r="F149" t="n">
-        <v>99.826277777778</v>
+        <v>98.950680555556</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -8330,17 +8336,17 @@
         <v>0</v>
       </c>
       <c r="J149" t="n">
-        <v>-0.00028124293241513</v>
+        <v>-0.00016994916962083</v>
       </c>
       <c r="K149" t="n">
-        <v>1.6403140968289e-05</v>
+        <v>4.202643900798901e-05</v>
       </c>
       <c r="L149" t="n">
-        <v>106</v>
+        <v>251</v>
       </c>
       <c r="M149" t="inlineStr"/>
       <c r="N149" t="n">
-        <v>58198</v>
+        <v>38798</v>
       </c>
       <c r="O149" t="n">
         <v>0</v>
@@ -8350,24 +8356,24 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>207816</v>
+        <v>207818</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>20220630.400000</t>
+          <t>20221229.400000</t>
         </is>
       </c>
       <c r="C150" s="2" t="n">
-        <v>44637</v>
+        <v>44676</v>
       </c>
       <c r="D150" t="n">
-        <v>99.865833333334</v>
+        <v>98.966666666667</v>
       </c>
       <c r="E150" t="n">
-        <v>99.86874999999999</v>
+        <v>98.973555555556</v>
       </c>
       <c r="F150" t="n">
-        <v>99.867291666667</v>
+        <v>98.970111111111</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -8383,17 +8389,17 @@
         <v>0</v>
       </c>
       <c r="J150" t="n">
-        <v>0.00041085263120985</v>
+        <v>0.00019636606283528</v>
       </c>
       <c r="K150" t="n">
-        <v>1.264728274534e-05</v>
+        <v>4.1743102441378e-05</v>
       </c>
       <c r="L150" t="n">
-        <v>105</v>
+        <v>248</v>
       </c>
       <c r="M150" t="inlineStr"/>
       <c r="N150" t="n">
-        <v>58198</v>
+        <v>38798</v>
       </c>
       <c r="O150" t="n">
         <v>0</v>
@@ -8403,24 +8409,24 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>207816</v>
+        <v>207818</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>20220630.400000</t>
+          <t>20221229.400000</t>
         </is>
       </c>
       <c r="C151" s="2" t="n">
-        <v>44638</v>
+        <v>44677</v>
       </c>
       <c r="D151" t="n">
-        <v>99.87</v>
+        <v>98.97769444444499</v>
       </c>
       <c r="E151" t="n">
-        <v>99.87288888888899</v>
+        <v>98.984555555556</v>
       </c>
       <c r="F151" t="n">
-        <v>99.871444444445</v>
+        <v>98.98112499999999</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -8436,17 +8442,17 @@
         <v>0</v>
       </c>
       <c r="J151" t="n">
-        <v>4.1582961833483e-05</v>
+        <v>0.00011128500074647</v>
       </c>
       <c r="K151" t="n">
-        <v>1.2369063374756e-05</v>
+        <v>4.1461581362071e-05</v>
       </c>
       <c r="L151" t="n">
-        <v>104</v>
+        <v>247</v>
       </c>
       <c r="M151" t="inlineStr"/>
       <c r="N151" t="n">
-        <v>58198</v>
+        <v>38798</v>
       </c>
       <c r="O151" t="n">
         <v>0</v>
@@ -8456,24 +8462,24 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>207816</v>
+        <v>207818</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>20220630.400000</t>
+          <t>20221229.400000</t>
         </is>
       </c>
       <c r="C152" s="2" t="n">
-        <v>44641</v>
+        <v>44678</v>
       </c>
       <c r="D152" t="n">
-        <v>99.854111111111</v>
+        <v>98.988666666667</v>
       </c>
       <c r="E152" t="n">
-        <v>99.858319444445</v>
+        <v>98.99549999999999</v>
       </c>
       <c r="F152" t="n">
-        <v>99.85621527777799</v>
+        <v>98.99208333333399</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -8489,17 +8495,17 @@
         <v>0</v>
       </c>
       <c r="J152" t="n">
-        <v>-0.00015248769807405</v>
+        <v>0.00011071134353488</v>
       </c>
       <c r="K152" t="n">
-        <v>1.4246355608711e-05</v>
+        <v>4.1180103174574e-05</v>
       </c>
       <c r="L152" t="n">
-        <v>101</v>
+        <v>246</v>
       </c>
       <c r="M152" t="inlineStr"/>
       <c r="N152" t="n">
-        <v>58198</v>
+        <v>38798</v>
       </c>
       <c r="O152" t="n">
         <v>0</v>
@@ -8509,24 +8515,24 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>207816</v>
+        <v>207818</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>20220630.400000</t>
+          <t>20221229.400000</t>
         </is>
       </c>
       <c r="C153" s="2" t="n">
-        <v>44642</v>
+        <v>44679</v>
       </c>
       <c r="D153" t="n">
-        <v>99.852777777778</v>
+        <v>99.00638888888899</v>
       </c>
       <c r="E153" t="n">
-        <v>99.85555555555599</v>
+        <v>99.01319444444499</v>
       </c>
       <c r="F153" t="n">
-        <v>99.854166666667</v>
+        <v>99.009791666667</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -8542,17 +8548,17 @@
         <v>0</v>
       </c>
       <c r="J153" t="n">
-        <v>-2.0515609423295e-05</v>
+        <v>0.00017888635875764</v>
       </c>
       <c r="K153" t="n">
-        <v>1.4593977363512e-05</v>
+        <v>4.0618102124263e-05</v>
       </c>
       <c r="L153" t="n">
-        <v>100</v>
+        <v>245</v>
       </c>
       <c r="M153" t="inlineStr"/>
       <c r="N153" t="n">
-        <v>58198</v>
+        <v>38798</v>
       </c>
       <c r="O153" t="n">
         <v>0</v>
@@ -8562,24 +8568,24 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>207816</v>
+        <v>207818</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>20220630.400000</t>
+          <t>20221229.400000</t>
         </is>
       </c>
       <c r="C154" s="2" t="n">
-        <v>44643</v>
+        <v>44680</v>
       </c>
       <c r="D154" t="n">
-        <v>99.8625</v>
+        <v>98.996888888889</v>
       </c>
       <c r="E154" t="n">
-        <v>99.86525</v>
+        <v>99.003666666667</v>
       </c>
       <c r="F154" t="n">
-        <v>99.86387499999999</v>
+        <v>99.000277777778</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -8595,17 +8601,17 @@
         <v>0</v>
       </c>
       <c r="J154" t="n">
-        <v>9.7225119966755e-05</v>
+        <v>-9.6090383877702e-05</v>
       </c>
       <c r="K154" t="n">
-        <v>1.3759367095353e-05</v>
+        <v>4.117840172663401e-05</v>
       </c>
       <c r="L154" t="n">
-        <v>99</v>
+        <v>244</v>
       </c>
       <c r="M154" t="inlineStr"/>
       <c r="N154" t="n">
-        <v>58198</v>
+        <v>38798</v>
       </c>
       <c r="O154" t="n">
         <v>0</v>
@@ -8615,24 +8621,24 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>207816</v>
+        <v>207818</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>20220630.400000</t>
+          <t>20221229.400000</t>
         </is>
       </c>
       <c r="C155" s="2" t="n">
-        <v>44644</v>
+        <v>44558</v>
       </c>
       <c r="D155" t="n">
-        <v>99.861166666667</v>
+        <v>99.608583333334</v>
       </c>
       <c r="E155" t="n">
-        <v>99.86388888888899</v>
+        <v>99.613666666667</v>
       </c>
       <c r="F155" t="n">
-        <v>99.862527777778</v>
+        <v>99.611125</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -8648,18 +8654,16 @@
         <v>0</v>
       </c>
       <c r="J155" t="n">
-        <v>-1.3490586282721e-05</v>
+        <v>-0.00011724780777286</v>
       </c>
       <c r="K155" t="n">
-        <v>1.403742877267e-05</v>
+        <v>1.0645712699487e-05</v>
       </c>
       <c r="L155" t="n">
-        <v>98</v>
+        <v>366</v>
       </c>
       <c r="M155" t="inlineStr"/>
-      <c r="N155" t="n">
-        <v>58198</v>
-      </c>
+      <c r="N155" t="inlineStr"/>
       <c r="O155" t="n">
         <v>0</v>
       </c>
@@ -8668,24 +8672,24 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>207816</v>
+        <v>207818</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>20220630.400000</t>
+          <t>20221229.400000</t>
         </is>
       </c>
       <c r="C156" s="2" t="n">
-        <v>44645</v>
+        <v>44559</v>
       </c>
       <c r="D156" t="n">
-        <v>99.846416666667</v>
+        <v>99.619791666667</v>
       </c>
       <c r="E156" t="n">
-        <v>99.859888888889</v>
+        <v>99.624861111111</v>
       </c>
       <c r="F156" t="n">
-        <v>99.85315277777799</v>
+        <v>99.62232638888899</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -8701,18 +8705,16 @@
         <v>0</v>
       </c>
       <c r="J156" t="n">
-        <v>-9.3879057626836e-05</v>
+        <v>0.0001124511834286</v>
       </c>
       <c r="K156" t="n">
-        <v>1.5150015301679e-05</v>
+        <v>1.0366810922586e-05</v>
       </c>
       <c r="L156" t="n">
-        <v>97</v>
+        <v>365</v>
       </c>
       <c r="M156" t="inlineStr"/>
-      <c r="N156" t="n">
-        <v>58198</v>
-      </c>
+      <c r="N156" t="inlineStr"/>
       <c r="O156" t="n">
         <v>0</v>
       </c>
@@ -8721,24 +8723,24 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>207816</v>
+        <v>207818</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>20220630.400000</t>
+          <t>20221229.400000</t>
         </is>
       </c>
       <c r="C157" s="2" t="n">
-        <v>44648</v>
+        <v>44560</v>
       </c>
       <c r="D157" t="n">
-        <v>99.848555555556</v>
+        <v>99.63094444444499</v>
       </c>
       <c r="E157" t="n">
-        <v>99.85377777777799</v>
+        <v>99.64105555555599</v>
       </c>
       <c r="F157" t="n">
-        <v>99.851166666667</v>
+        <v>99.636</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -8754,18 +8756,16 @@
         <v>0</v>
       </c>
       <c r="J157" t="n">
-        <v>-1.9890319492741e-05</v>
+        <v>0.0001372544850812</v>
       </c>
       <c r="K157" t="n">
-        <v>1.5845127676283e-05</v>
+        <v>1.0018244286257e-05</v>
       </c>
       <c r="L157" t="n">
-        <v>94</v>
+        <v>364</v>
       </c>
       <c r="M157" t="inlineStr"/>
-      <c r="N157" t="n">
-        <v>58198</v>
-      </c>
+      <c r="N157" t="inlineStr"/>
       <c r="O157" t="n">
         <v>0</v>
       </c>
@@ -8774,24 +8774,24 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>207816</v>
+        <v>207818</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>20220630.400000</t>
+          <t>20221229.400000</t>
         </is>
       </c>
       <c r="C158" s="2" t="n">
-        <v>44649</v>
+        <v>44561</v>
       </c>
       <c r="D158" t="n">
-        <v>99.854041666667</v>
+        <v>99.616833333334</v>
       </c>
       <c r="E158" t="n">
-        <v>99.85662499999999</v>
+        <v>99.626916666667</v>
       </c>
       <c r="F158" t="n">
-        <v>99.855333333334</v>
+        <v>99.621875</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -8807,17 +8807,17 @@
         <v>0</v>
       </c>
       <c r="J158" t="n">
-        <v>4.172877299040701e-05</v>
+        <v>-0.00014176602834304</v>
       </c>
       <c r="K158" t="n">
-        <v>1.5566818270982e-05</v>
+        <v>1.0436410463619e-05</v>
       </c>
       <c r="L158" t="n">
-        <v>93</v>
+        <v>363</v>
       </c>
       <c r="M158" t="inlineStr"/>
       <c r="N158" t="n">
-        <v>58198</v>
+        <v>38798</v>
       </c>
       <c r="O158" t="n">
         <v>0</v>
@@ -8827,24 +8827,24 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>207816</v>
+        <v>207818</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>20220630.400000</t>
+          <t>20221229.400000</t>
         </is>
       </c>
       <c r="C159" s="2" t="n">
-        <v>44650</v>
+        <v>44564</v>
       </c>
       <c r="D159" t="n">
-        <v>99.86199999999999</v>
+        <v>99.61</v>
       </c>
       <c r="E159" t="n">
-        <v>99.867111111111</v>
+        <v>99.62</v>
       </c>
       <c r="F159" t="n">
-        <v>99.864555555556</v>
+        <v>99.61499999999999</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -8860,17 +8860,17 @@
         <v>0</v>
       </c>
       <c r="J159" t="n">
-        <v>9.2355830323473e-05</v>
+        <v>-6.9010947645736e-05</v>
       </c>
       <c r="K159" t="n">
-        <v>1.4732201450163e-05</v>
+        <v>1.0715084242513e-05</v>
       </c>
       <c r="L159" t="n">
-        <v>92</v>
+        <v>360</v>
       </c>
       <c r="M159" t="inlineStr"/>
       <c r="N159" t="n">
-        <v>58198</v>
+        <v>38798</v>
       </c>
       <c r="O159" t="n">
         <v>0</v>
@@ -8880,24 +8880,24 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>207816</v>
+        <v>207818</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>20220630.400000</t>
+          <t>20221229.400000</t>
         </is>
       </c>
       <c r="C160" s="2" t="n">
-        <v>44651</v>
+        <v>44565</v>
       </c>
       <c r="D160" t="n">
-        <v>99.873611111111</v>
+        <v>99.631027777778</v>
       </c>
       <c r="E160" t="n">
-        <v>99.874875</v>
+        <v>99.645986111111</v>
       </c>
       <c r="F160" t="n">
-        <v>99.87424305555599</v>
+        <v>99.638506944445</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -8913,17 +8913,17 @@
         <v>0</v>
       </c>
       <c r="J160" t="n">
-        <v>9.700638976569001e-05</v>
+        <v>0.00023597795958882</v>
       </c>
       <c r="K160" t="n">
-        <v>1.3828141191921e-05</v>
+        <v>1.0087688596476e-05</v>
       </c>
       <c r="L160" t="n">
-        <v>91</v>
+        <v>359</v>
       </c>
       <c r="M160" t="inlineStr"/>
       <c r="N160" t="n">
-        <v>123702</v>
+        <v>38798</v>
       </c>
       <c r="O160" t="n">
         <v>0</v>
@@ -8933,24 +8933,24 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>207816</v>
+        <v>207818</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>20220630.400000</t>
+          <t>20221229.400000</t>
         </is>
       </c>
       <c r="C161" s="2" t="n">
-        <v>44652</v>
+        <v>44566</v>
       </c>
       <c r="D161" t="n">
-        <v>99.87125</v>
+        <v>99.607194444445</v>
       </c>
       <c r="E161" t="n">
-        <v>99.8725</v>
+        <v>99.61216666666699</v>
       </c>
       <c r="F161" t="n">
-        <v>99.871875</v>
+        <v>99.609680555556</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -8966,17 +8966,17 @@
         <v>0</v>
       </c>
       <c r="J161" t="n">
-        <v>-2.3710372996168e-05</v>
+        <v>-0.00028930972344823</v>
       </c>
       <c r="K161" t="n">
-        <v>1.4245238917293e-05</v>
+        <v>1.0924111138868e-05</v>
       </c>
       <c r="L161" t="n">
-        <v>90</v>
+        <v>358</v>
       </c>
       <c r="M161" t="inlineStr"/>
       <c r="N161" t="n">
-        <v>123702</v>
+        <v>38798</v>
       </c>
       <c r="O161" t="n">
         <v>0</v>
@@ -8986,24 +8986,24 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>207816</v>
+        <v>207818</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>20220630.400000</t>
+          <t>20221229.400000</t>
         </is>
       </c>
       <c r="C162" s="2" t="n">
-        <v>44655</v>
+        <v>44567</v>
       </c>
       <c r="D162" t="n">
-        <v>99.86708333333399</v>
+        <v>99.57854166666699</v>
       </c>
       <c r="E162" t="n">
-        <v>99.8695</v>
+        <v>99.598375</v>
       </c>
       <c r="F162" t="n">
-        <v>99.86829166666699</v>
+        <v>99.588458333334</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -9019,17 +9019,17 @@
         <v>0</v>
       </c>
       <c r="J162" t="n">
-        <v>-3.58793036912e-05</v>
+        <v>-0.00021305381268019</v>
       </c>
       <c r="K162" t="n">
-        <v>1.5148867240518e-05</v>
+        <v>1.1551563864377e-05</v>
       </c>
       <c r="L162" t="n">
-        <v>87</v>
+        <v>357</v>
       </c>
       <c r="M162" t="inlineStr"/>
       <c r="N162" t="n">
-        <v>123702</v>
+        <v>38798</v>
       </c>
       <c r="O162" t="n">
         <v>0</v>
@@ -9039,24 +9039,24 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>207816</v>
+        <v>207818</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>20220630.400000</t>
+          <t>20221229.400000</t>
         </is>
       </c>
       <c r="C163" s="2" t="n">
-        <v>44656</v>
+        <v>44568</v>
       </c>
       <c r="D163" t="n">
-        <v>99.865027777778</v>
+        <v>99.589611111111</v>
       </c>
       <c r="E163" t="n">
-        <v>99.869805555556</v>
+        <v>99.59949999999999</v>
       </c>
       <c r="F163" t="n">
-        <v>99.867416666667</v>
+        <v>99.594555555556</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -9072,17 +9072,17 @@
         <v>0</v>
       </c>
       <c r="J163" t="n">
-        <v>-8.761539677774699e-06</v>
+        <v>6.1224185254633e-05</v>
       </c>
       <c r="K163" t="n">
-        <v>1.542689567425e-05</v>
+        <v>1.1412039293404e-05</v>
       </c>
       <c r="L163" t="n">
-        <v>86</v>
+        <v>356</v>
       </c>
       <c r="M163" t="inlineStr"/>
       <c r="N163" t="n">
-        <v>123702</v>
+        <v>38798</v>
       </c>
       <c r="O163" t="n">
         <v>0</v>
@@ -9092,24 +9092,24 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>207816</v>
+        <v>207818</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>20220630.400000</t>
+          <t>20221229.400000</t>
         </is>
       </c>
       <c r="C164" s="2" t="n">
-        <v>44657</v>
+        <v>44571</v>
       </c>
       <c r="D164" t="n">
-        <v>99.864236111111</v>
+        <v>99.573458333334</v>
       </c>
       <c r="E164" t="n">
-        <v>99.866597222222</v>
+        <v>99.58816666666699</v>
       </c>
       <c r="F164" t="n">
-        <v>99.865416666667</v>
+        <v>99.58081249999999</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -9125,17 +9125,17 @@
         <v>0</v>
       </c>
       <c r="J164" t="n">
-        <v>-2.0026551870041e-05</v>
+        <v>-0.00013799002845987</v>
       </c>
       <c r="K164" t="n">
-        <v>1.5843997416349e-05</v>
+        <v>1.1899959032328e-05</v>
       </c>
       <c r="L164" t="n">
-        <v>85</v>
+        <v>353</v>
       </c>
       <c r="M164" t="inlineStr"/>
       <c r="N164" t="n">
-        <v>123702</v>
+        <v>38798</v>
       </c>
       <c r="O164" t="n">
         <v>0</v>
@@ -9145,24 +9145,24 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>207816</v>
+        <v>207818</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>20220630.400000</t>
+          <t>20221229.400000</t>
         </is>
       </c>
       <c r="C165" s="2" t="n">
-        <v>44658</v>
+        <v>44572</v>
       </c>
       <c r="D165" t="n">
-        <v>99.87049999999999</v>
+        <v>99.574666666667</v>
       </c>
       <c r="E165" t="n">
-        <v>99.87283333333299</v>
+        <v>99.579555555556</v>
       </c>
       <c r="F165" t="n">
-        <v>99.871666666667</v>
+        <v>99.57711111111099</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -9178,17 +9178,17 @@
         <v>0</v>
       </c>
       <c r="J165" t="n">
-        <v>6.258422794006801e-05</v>
+        <v>-3.7169699623379e-05</v>
       </c>
       <c r="K165" t="n">
-        <v>1.5287589413816e-05</v>
+        <v>1.2039363434221e-05</v>
       </c>
       <c r="L165" t="n">
-        <v>84</v>
+        <v>352</v>
       </c>
       <c r="M165" t="inlineStr"/>
       <c r="N165" t="n">
-        <v>123702</v>
+        <v>38798</v>
       </c>
       <c r="O165" t="n">
         <v>0</v>
@@ -9198,24 +9198,24 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>207816</v>
+        <v>207818</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>20220630.400000</t>
+          <t>20221229.400000</t>
         </is>
       </c>
       <c r="C166" s="2" t="n">
-        <v>44659</v>
+        <v>44573</v>
       </c>
       <c r="D166" t="n">
-        <v>99.866277777778</v>
+        <v>99.56125</v>
       </c>
       <c r="E166" t="n">
-        <v>99.868583333334</v>
+        <v>99.571</v>
       </c>
       <c r="F166" t="n">
-        <v>99.867430555556</v>
+        <v>99.566125</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -9231,17 +9231,17 @@
         <v>0</v>
       </c>
       <c r="J166" t="n">
-        <v>-4.2415544393082e-05</v>
+        <v>-0.00011032767458854</v>
       </c>
       <c r="K166" t="n">
-        <v>1.5982818731546e-05</v>
+        <v>1.2388004814757e-05</v>
       </c>
       <c r="L166" t="n">
-        <v>83</v>
+        <v>351</v>
       </c>
       <c r="M166" t="inlineStr"/>
       <c r="N166" t="n">
-        <v>123702</v>
+        <v>38798</v>
       </c>
       <c r="O166" t="n">
         <v>0</v>
@@ -9251,24 +9251,24 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>207816</v>
+        <v>207818</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>20220630.400000</t>
+          <t>20221229.400000</t>
         </is>
       </c>
       <c r="C167" s="2" t="n">
-        <v>44662</v>
+        <v>44574</v>
       </c>
       <c r="D167" t="n">
-        <v>99.867777777778</v>
+        <v>99.567361111111</v>
       </c>
       <c r="E167" t="n">
-        <v>99.87</v>
+        <v>99.577083333334</v>
       </c>
       <c r="F167" t="n">
-        <v>99.868888888889</v>
+        <v>99.572222222222</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -9284,17 +9284,17 @@
         <v>0</v>
       </c>
       <c r="J167" t="n">
-        <v>1.4602692040975e-05</v>
+        <v>6.1237918239997e-05</v>
       </c>
       <c r="K167" t="n">
-        <v>1.6399642116194e-05</v>
+        <v>1.2248438990585e-05</v>
       </c>
       <c r="L167" t="n">
-        <v>80</v>
+        <v>350</v>
       </c>
       <c r="M167" t="inlineStr"/>
       <c r="N167" t="n">
-        <v>123702</v>
+        <v>38798</v>
       </c>
       <c r="O167" t="n">
         <v>0</v>
@@ -9304,24 +9304,24 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>207816</v>
+        <v>207818</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>20220630.400000</t>
+          <t>20221229.400000</t>
         </is>
       </c>
       <c r="C168" s="2" t="n">
-        <v>44663</v>
+        <v>44575</v>
       </c>
       <c r="D168" t="n">
-        <v>99.87601388888899</v>
+        <v>99.515277777778</v>
       </c>
       <c r="E168" t="n">
-        <v>99.878208333334</v>
+        <v>99.539513888889</v>
       </c>
       <c r="F168" t="n">
-        <v>99.87711111111099</v>
+        <v>99.527395833334</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
@@ -9337,17 +9337,17 @@
         <v>0</v>
       </c>
       <c r="J168" t="n">
-        <v>8.2330166217914e-05</v>
+        <v>-0.0004501897003848401</v>
       </c>
       <c r="K168" t="n">
-        <v>1.5565121417973e-05</v>
+        <v>1.3573767085663e-05</v>
       </c>
       <c r="L168" t="n">
-        <v>79</v>
+        <v>349</v>
       </c>
       <c r="M168" t="inlineStr"/>
       <c r="N168" t="n">
-        <v>123702</v>
+        <v>38798</v>
       </c>
       <c r="O168" t="n">
         <v>0</v>
@@ -9357,24 +9357,24 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>207816</v>
+        <v>207818</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>20220630.400000</t>
+          <t>20221229.400000</t>
         </is>
       </c>
       <c r="C169" s="2" t="n">
-        <v>44664</v>
+        <v>44579</v>
       </c>
       <c r="D169" t="n">
-        <v>99.877583333334</v>
+        <v>99.4825</v>
       </c>
       <c r="E169" t="n">
-        <v>99.87975</v>
+        <v>99.48729166666701</v>
       </c>
       <c r="F169" t="n">
-        <v>99.878666666667</v>
+        <v>99.484895833333</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -9390,17 +9390,17 @@
         <v>0</v>
       </c>
       <c r="J169" t="n">
-        <v>1.5574695125445e-05</v>
+        <v>-0.00042701810535847</v>
       </c>
       <c r="K169" t="n">
-        <v>1.5565000233058e-05</v>
+        <v>1.4969142076664e-05</v>
       </c>
       <c r="L169" t="n">
-        <v>78</v>
+        <v>345</v>
       </c>
       <c r="M169" t="inlineStr"/>
       <c r="N169" t="n">
-        <v>123702</v>
+        <v>38798</v>
       </c>
       <c r="O169" t="n">
         <v>0</v>
@@ -9410,24 +9410,24 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>207816</v>
+        <v>207818</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>20220630.400000</t>
+          <t>20221229.400000</t>
         </is>
       </c>
       <c r="C170" s="2" t="n">
-        <v>44665</v>
+        <v>44580</v>
       </c>
       <c r="D170" t="n">
-        <v>99.863111111111</v>
+        <v>99.488777777778</v>
       </c>
       <c r="E170" t="n">
-        <v>99.871666666667</v>
+        <v>99.498333333334</v>
       </c>
       <c r="F170" t="n">
-        <v>99.867388888889</v>
+        <v>99.493555555556</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -9443,17 +9443,17 @@
         <v>0</v>
       </c>
       <c r="J170" t="n">
-        <v>-0.00011291478104552</v>
+        <v>8.704559772303401e-05</v>
       </c>
       <c r="K170" t="n">
-        <v>1.7233651617896e-05</v>
+        <v>1.4759628508646e-05</v>
       </c>
       <c r="L170" t="n">
-        <v>77</v>
+        <v>344</v>
       </c>
       <c r="M170" t="inlineStr"/>
       <c r="N170" t="n">
-        <v>123702</v>
+        <v>38798</v>
       </c>
       <c r="O170" t="n">
         <v>0</v>
@@ -9463,24 +9463,24 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>207816</v>
+        <v>207818</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>20220630.400000</t>
+          <t>20221229.400000</t>
         </is>
       </c>
       <c r="C171" s="2" t="n">
-        <v>44669</v>
+        <v>44581</v>
       </c>
       <c r="D171" t="n">
-        <v>99.869208333334</v>
+        <v>99.480736111111</v>
       </c>
       <c r="E171" t="n">
-        <v>99.871236111111</v>
+        <v>99.49502777777799</v>
       </c>
       <c r="F171" t="n">
-        <v>99.870222222222</v>
+        <v>99.48788194444499</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -9496,17 +9496,17 @@
         <v>0</v>
       </c>
       <c r="J171" t="n">
-        <v>2.8370956373888e-05</v>
+        <v>-5.702491060293101e-05</v>
       </c>
       <c r="K171" t="n">
-        <v>1.7789323570576e-05</v>
+        <v>1.4968917619706e-05</v>
       </c>
       <c r="L171" t="n">
-        <v>73</v>
+        <v>343</v>
       </c>
       <c r="M171" t="inlineStr"/>
       <c r="N171" t="n">
-        <v>123702</v>
+        <v>38798</v>
       </c>
       <c r="O171" t="n">
         <v>0</v>
@@ -9516,24 +9516,24 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>207816</v>
+        <v>207818</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>20220630.400000</t>
+          <t>20221229.400000</t>
         </is>
       </c>
       <c r="C172" s="2" t="n">
-        <v>44670</v>
+        <v>44582</v>
       </c>
       <c r="D172" t="n">
-        <v>99.873</v>
+        <v>99.47275</v>
       </c>
       <c r="E172" t="n">
-        <v>99.875</v>
+        <v>99.48699999999999</v>
       </c>
       <c r="F172" t="n">
-        <v>99.874</v>
+        <v>99.47987499999999</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -9549,17 +9549,17 @@
         <v>0</v>
       </c>
       <c r="J172" t="n">
-        <v>3.7826868647226e-05</v>
+        <v>-8.048160527640801e-05</v>
       </c>
       <c r="K172" t="n">
-        <v>1.7511034269762e-05</v>
+        <v>1.5248022186122e-05</v>
       </c>
       <c r="L172" t="n">
-        <v>72</v>
+        <v>342</v>
       </c>
       <c r="M172" t="inlineStr"/>
       <c r="N172" t="n">
-        <v>123702</v>
+        <v>38798</v>
       </c>
       <c r="O172" t="n">
         <v>0</v>
@@ -9569,24 +9569,24 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>207816</v>
+        <v>207818</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>20220630.400000</t>
+          <t>20221229.400000</t>
         </is>
       </c>
       <c r="C173" s="2" t="n">
-        <v>44671</v>
+        <v>44585</v>
       </c>
       <c r="D173" t="n">
-        <v>99.87575</v>
+        <v>99.47737499999999</v>
       </c>
       <c r="E173" t="n">
-        <v>99.881666666667</v>
+        <v>99.486791666667</v>
       </c>
       <c r="F173" t="n">
-        <v>99.87870833333299</v>
+        <v>99.48208333333299</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -9602,17 +9602,17 @@
         <v>0</v>
       </c>
       <c r="J173" t="n">
-        <v>4.7142733177056e-05</v>
+        <v>2.2198794814842e-05</v>
       </c>
       <c r="K173" t="n">
-        <v>1.7093702048301e-05</v>
+        <v>1.5317477991824e-05</v>
       </c>
       <c r="L173" t="n">
-        <v>71</v>
+        <v>339</v>
       </c>
       <c r="M173" t="inlineStr"/>
       <c r="N173" t="n">
-        <v>123702</v>
+        <v>38798</v>
       </c>
       <c r="O173" t="n">
         <v>0</v>
@@ -9622,24 +9622,24 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>207816</v>
+        <v>207818</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>20220630.400000</t>
+          <t>20221229.400000</t>
         </is>
       </c>
       <c r="C174" s="2" t="n">
-        <v>44672</v>
+        <v>44586</v>
       </c>
       <c r="D174" t="n">
-        <v>99.88333333333399</v>
+        <v>99.446055555556</v>
       </c>
       <c r="E174" t="n">
-        <v>99.885277777778</v>
+        <v>99.45544444444499</v>
       </c>
       <c r="F174" t="n">
-        <v>99.884305555556</v>
+        <v>99.45075</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -9655,17 +9655,17 @@
         <v>0</v>
       </c>
       <c r="J174" t="n">
-        <v>5.6040194307991e-05</v>
+        <v>-0.00031496458742565</v>
       </c>
       <c r="K174" t="n">
-        <v>1.6537346018779e-05</v>
+        <v>1.6294790646205e-05</v>
       </c>
       <c r="L174" t="n">
-        <v>70</v>
+        <v>338</v>
       </c>
       <c r="M174" t="inlineStr"/>
       <c r="N174" t="n">
-        <v>123702</v>
+        <v>38798</v>
       </c>
       <c r="O174" t="n">
         <v>0</v>
@@ -9675,24 +9675,24 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>207816</v>
+        <v>207818</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>20220630.400000</t>
+          <t>20221229.400000</t>
         </is>
       </c>
       <c r="C175" s="2" t="n">
-        <v>44673</v>
+        <v>44587</v>
       </c>
       <c r="D175" t="n">
-        <v>99.87733333333399</v>
+        <v>99.382166666667</v>
       </c>
       <c r="E175" t="n">
-        <v>99.87925</v>
+        <v>99.39152777777799</v>
       </c>
       <c r="F175" t="n">
-        <v>99.878291666667</v>
+        <v>99.386847222222</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -9708,17 +9708,17 @@
         <v>0</v>
       </c>
       <c r="J175" t="n">
-        <v>-6.020854683254901e-05</v>
+        <v>-0.0006425570222222501</v>
       </c>
       <c r="K175" t="n">
-        <v>1.7649631605135e-05</v>
+        <v>1.8250453379461e-05</v>
       </c>
       <c r="L175" t="n">
-        <v>69</v>
+        <v>337</v>
       </c>
       <c r="M175" t="inlineStr"/>
       <c r="N175" t="n">
-        <v>123702</v>
+        <v>38798</v>
       </c>
       <c r="O175" t="n">
         <v>0</v>
